--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_14_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_14_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2075870.686583583</v>
+        <v>-2076669.0540214</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1518870.533152644</v>
+        <v>1518870.533152645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681856</v>
+        <v>590120.9651681859</v>
       </c>
     </row>
     <row r="9">
@@ -1376,10 +1376,10 @@
         <v>234.5821807471161</v>
       </c>
       <c r="E11" t="n">
-        <v>261.0954837478052</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>285.2713114730586</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>210.7336715177292</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.92019570772391</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>98.63966577724241</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.4131254575977</v>
       </c>
       <c r="V11" t="n">
         <v>206.5106695150371</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.5075649930723</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>237.4764502282054</v>
       </c>
       <c r="Y11" t="n">
-        <v>210.5902069429782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.34957360286256</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
         <v>49.00303191991873</v>
@@ -1458,7 +1458,7 @@
         <v>34.01088169969157</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>21.48368007606703</v>
       </c>
       <c r="G12" t="n">
         <v>13.7191825122173</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.21879642024864</v>
       </c>
       <c r="S12" t="n">
-        <v>156.1723411209969</v>
+        <v>78.95354470074777</v>
       </c>
       <c r="T12" t="n">
         <v>197.2479873695406</v>
@@ -1512,10 +1512,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.439077600996</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.64859941110376</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1534,7 +1534,7 @@
         <v>26.9830145070371</v>
       </c>
       <c r="E13" t="n">
-        <v>20.82378795359877</v>
+        <v>24.95207216571691</v>
       </c>
       <c r="F13" t="n">
         <v>24.13646940232223</v>
@@ -1546,7 +1546,7 @@
         <v>37.51344541500135</v>
       </c>
       <c r="I13" t="n">
-        <v>24.63943984930674</v>
+        <v>24.63943984930675</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>105.301636831036</v>
       </c>
       <c r="U13" t="n">
-        <v>164.0168467603523</v>
+        <v>159.8885625482346</v>
       </c>
       <c r="V13" t="n">
         <v>130.9137990594569</v>
@@ -1607,19 +1607,19 @@
         <v>261.6938579839127</v>
       </c>
       <c r="C14" t="n">
-        <v>244.9625436714603</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.582180747116</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>261.0954837478051</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.2713114730585</v>
       </c>
       <c r="G14" t="n">
-        <v>292.3061370030429</v>
+        <v>173.2426657904164</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.85443390360336</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.4131254575977</v>
       </c>
       <c r="V14" t="n">
-        <v>94.44134471809407</v>
+        <v>206.510669515037</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.6645197437534</v>
+        <v>264.6645197437535</v>
       </c>
     </row>
     <row r="15">
@@ -1686,19 +1686,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>49.00303191991864</v>
+        <v>49.00303191991867</v>
       </c>
       <c r="D15" t="n">
-        <v>24.08987156716321</v>
+        <v>24.08987156716324</v>
       </c>
       <c r="E15" t="n">
-        <v>34.01088169969148</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.48368007606697</v>
       </c>
       <c r="G15" t="n">
-        <v>13.71918251221721</v>
+        <v>128.1807491360453</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>163.7333265046506</v>
       </c>
       <c r="T15" t="n">
-        <v>75.22543536205828</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U15" t="n">
-        <v>217.0776735463541</v>
+        <v>102.6161069225253</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>127.9667947425177</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>82.43907760099594</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.64859941110367</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.06113948320146</v>
+        <v>58.06113948320149</v>
       </c>
       <c r="C16" t="n">
-        <v>45.31400092371999</v>
+        <v>45.31400092372002</v>
       </c>
       <c r="D16" t="n">
-        <v>26.98301450703701</v>
+        <v>26.98301450703704</v>
       </c>
       <c r="E16" t="n">
-        <v>20.82378795360074</v>
+        <v>24.95207216571686</v>
       </c>
       <c r="F16" t="n">
-        <v>24.13646940232215</v>
+        <v>24.13646940232218</v>
       </c>
       <c r="G16" t="n">
-        <v>45.63105716341543</v>
+        <v>45.63105716341548</v>
       </c>
       <c r="H16" t="n">
-        <v>37.51344541500126</v>
+        <v>37.51344541500129</v>
       </c>
       <c r="I16" t="n">
-        <v>24.63943984930666</v>
+        <v>24.63943984930669</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.75808757999043</v>
+        <v>40.75808757999047</v>
       </c>
       <c r="S16" t="n">
-        <v>96.22237133206647</v>
+        <v>96.2223713320665</v>
       </c>
       <c r="T16" t="n">
-        <v>105.3016368310359</v>
+        <v>105.301636831036</v>
       </c>
       <c r="U16" t="n">
         <v>164.0168467603522</v>
@@ -1831,7 +1831,7 @@
         <v>104.1178079248269</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.72612186028587</v>
+        <v>92.5978376481697</v>
       </c>
     </row>
     <row r="17">
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.17695501075707</v>
+        <v>28.17695501075704</v>
       </c>
       <c r="V17" t="n">
-        <v>105.2744990681962</v>
+        <v>105.2744990681964</v>
       </c>
       <c r="W17" t="n">
-        <v>127.2713945462317</v>
+        <v>127.2713945462316</v>
       </c>
       <c r="X17" t="n">
-        <v>147.6028766768465</v>
+        <v>147.6028766768464</v>
       </c>
       <c r="Y17" t="n">
         <v>163.4283492969129</v>
@@ -1923,25 +1923,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.81238500081963</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.81086936933814</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>133.0862445856839</v>
       </c>
       <c r="U18" t="n">
-        <v>1.379936475684708</v>
+        <v>1.37993647568468</v>
       </c>
       <c r="V18" t="n">
-        <v>8.650008585332216</v>
+        <v>8.650008585332188</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>28.4245996829894</v>
       </c>
       <c r="F19" t="n">
-        <v>15.67746112350795</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.065466384195373</v>
+        <v>4.065466384195346</v>
       </c>
       <c r="U19" t="n">
-        <v>62.78067631351166</v>
+        <v>62.78067631351163</v>
       </c>
       <c r="V19" t="n">
-        <v>29.67762861261625</v>
+        <v>29.67762861261622</v>
       </c>
       <c r="W19" t="n">
-        <v>62.83385443309263</v>
+        <v>62.8338544330926</v>
       </c>
       <c r="X19" t="n">
-        <v>2.881637477986345</v>
+        <v>2.881637477986317</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.17695501075707</v>
+        <v>28.17695501075704</v>
       </c>
       <c r="V20" t="n">
         <v>105.2744990681964</v>
       </c>
       <c r="W20" t="n">
-        <v>127.2713945462317</v>
+        <v>127.2713945462316</v>
       </c>
       <c r="X20" t="n">
-        <v>147.6028766768465</v>
+        <v>147.6028766768464</v>
       </c>
       <c r="Y20" t="n">
         <v>163.4283492969129</v>
@@ -2163,10 +2163,10 @@
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.81238500081963</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>77.21879642024862</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6386589300076</v>
+        <v>11.14763025605919</v>
       </c>
       <c r="V21" t="n">
-        <v>71.63643663416539</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.67746112350795</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>63.60546371478506</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>72.1550759516121</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>60.0006129477946</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4.065466384195373</v>
+        <v>4.065466384195346</v>
       </c>
       <c r="U22" t="n">
-        <v>62.78067631351166</v>
+        <v>62.78067631351163</v>
       </c>
       <c r="V22" t="n">
-        <v>29.67762861261625</v>
+        <v>29.67762861261622</v>
       </c>
       <c r="W22" t="n">
-        <v>62.83385443309263</v>
+        <v>62.8338544330926</v>
       </c>
       <c r="X22" t="n">
-        <v>2.881637477986345</v>
+        <v>2.881637477986317</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>126.3253994537402</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>1.37993647568468</v>
       </c>
       <c r="V24" t="n">
-        <v>212.1942044593211</v>
+        <v>8.650008585332188</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>123.6060766625798</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>123.6060766625796</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.065466384195345</v>
+        <v>4.065466384195346</v>
       </c>
       <c r="U25" t="n">
         <v>62.78067631351163</v>
@@ -2573,7 +2573,7 @@
         <v>190.6446289061488</v>
       </c>
       <c r="I26" t="n">
-        <v>42.8311530961435</v>
+        <v>42.83115309614351</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.76539129202302</v>
+        <v>51.76539129202303</v>
       </c>
       <c r="T26" t="n">
-        <v>78.550623165662</v>
+        <v>78.55062316566202</v>
       </c>
       <c r="U26" t="n">
         <v>109.3240828460173</v>
@@ -2646,7 +2646,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>87.092817331554</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>21.62173188558792</v>
       </c>
       <c r="T27" t="n">
-        <v>142.229210082032</v>
+        <v>55.13639275047797</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386589300076</v>
@@ -2731,7 +2731,7 @@
         <v>17.42440280342095</v>
       </c>
       <c r="I28" t="n">
-        <v>4.550397237726346</v>
+        <v>4.550397237726351</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.66904496841012</v>
+        <v>20.66904496841013</v>
       </c>
       <c r="S28" t="n">
         <v>76.13332872048616</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.6048153723325</v>
+        <v>241.6048153723324</v>
       </c>
       <c r="C29" t="n">
-        <v>224.8735010598801</v>
+        <v>224.87350105988</v>
       </c>
       <c r="D29" t="n">
         <v>214.4931381355358</v>
@@ -2801,16 +2801,16 @@
         <v>241.0064411362249</v>
       </c>
       <c r="F29" t="n">
-        <v>265.1822688614783</v>
+        <v>265.1822688614782</v>
       </c>
       <c r="G29" t="n">
         <v>272.2170943914626</v>
       </c>
       <c r="H29" t="n">
-        <v>190.6446289061489</v>
+        <v>190.6446289061488</v>
       </c>
       <c r="I29" t="n">
-        <v>42.83115309614358</v>
+        <v>42.83115309614357</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.7653912920231</v>
+        <v>51.76539129202308</v>
       </c>
       <c r="T29" t="n">
-        <v>78.55062316566209</v>
+        <v>78.55062316566207</v>
       </c>
       <c r="U29" t="n">
         <v>109.3240828460174</v>
       </c>
       <c r="V29" t="n">
-        <v>186.4216269034568</v>
+        <v>186.4216269034567</v>
       </c>
       <c r="W29" t="n">
         <v>208.418522381492</v>
@@ -2883,7 +2883,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>87.092817331554</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.62173188558801</v>
+        <v>21.62173188558798</v>
       </c>
       <c r="T30" t="n">
-        <v>142.229210082032</v>
+        <v>55.13639275047802</v>
       </c>
       <c r="U30" t="n">
         <v>224.6386589300076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.97209687162123</v>
+        <v>37.9720968716212</v>
       </c>
       <c r="C31" t="n">
-        <v>25.22495831213976</v>
+        <v>25.22495831213973</v>
       </c>
       <c r="D31" t="n">
-        <v>6.893971895456787</v>
+        <v>6.893971895456758</v>
       </c>
       <c r="E31" t="n">
-        <v>4.863029554136602</v>
+        <v>4.863029554136574</v>
       </c>
       <c r="F31" t="n">
-        <v>4.047426790741923</v>
+        <v>4.047426790741895</v>
       </c>
       <c r="G31" t="n">
-        <v>25.54201455183521</v>
+        <v>25.54201455183518</v>
       </c>
       <c r="H31" t="n">
-        <v>17.42440280342104</v>
+        <v>17.42440280342101</v>
       </c>
       <c r="I31" t="n">
-        <v>4.550397237726432</v>
+        <v>4.550397237726408</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.6690449684102</v>
+        <v>20.66904496841018</v>
       </c>
       <c r="S31" t="n">
-        <v>76.13332872048625</v>
+        <v>76.13332872048622</v>
       </c>
       <c r="T31" t="n">
-        <v>85.21259421945571</v>
+        <v>85.21259421945568</v>
       </c>
       <c r="U31" t="n">
         <v>143.927804148772</v>
@@ -3010,13 +3010,13 @@
         <v>110.8247564478766</v>
       </c>
       <c r="W31" t="n">
-        <v>143.980982268353</v>
+        <v>143.9809822683529</v>
       </c>
       <c r="X31" t="n">
-        <v>84.02876531324668</v>
+        <v>84.02876531324665</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.63707924870565</v>
+        <v>76.63707924870562</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.6048153723325</v>
+        <v>241.6048153723324</v>
       </c>
       <c r="C32" t="n">
-        <v>224.8735010598801</v>
+        <v>224.87350105988</v>
       </c>
       <c r="D32" t="n">
         <v>214.4931381355358</v>
@@ -3038,16 +3038,16 @@
         <v>241.0064411362249</v>
       </c>
       <c r="F32" t="n">
-        <v>265.1822688614783</v>
+        <v>265.1822688614782</v>
       </c>
       <c r="G32" t="n">
-        <v>272.2170943914627</v>
+        <v>272.2170943914626</v>
       </c>
       <c r="H32" t="n">
-        <v>190.6446289061489</v>
+        <v>190.6446289061488</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83115309614361</v>
+        <v>42.83115309614357</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.76539129202313</v>
+        <v>51.76539129202308</v>
       </c>
       <c r="T32" t="n">
-        <v>78.55062316566212</v>
+        <v>78.55062316566207</v>
       </c>
       <c r="U32" t="n">
         <v>109.3240828460174</v>
       </c>
       <c r="V32" t="n">
-        <v>186.4216269034568</v>
+        <v>186.4216269034567</v>
       </c>
       <c r="W32" t="n">
         <v>208.418522381492</v>
@@ -3095,7 +3095,7 @@
         <v>228.7500045121068</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.5754771321733</v>
+        <v>244.5754771321732</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>24.20227141884556</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.81238500081962</v>
+        <v>76.81238500081963</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>21.62173188558803</v>
+        <v>31.90216421632205</v>
       </c>
       <c r="T33" t="n">
         <v>197.2479873695406</v>
@@ -3171,7 +3171,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>62.35003498941566</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.97209687162126</v>
+        <v>37.9720968716212</v>
       </c>
       <c r="C34" t="n">
-        <v>25.22495831213979</v>
+        <v>25.22495831213973</v>
       </c>
       <c r="D34" t="n">
-        <v>6.893971895456815</v>
+        <v>6.893971895456758</v>
       </c>
       <c r="E34" t="n">
-        <v>4.863029554136631</v>
+        <v>4.863029554136574</v>
       </c>
       <c r="F34" t="n">
-        <v>4.047426790741952</v>
+        <v>4.047426790741895</v>
       </c>
       <c r="G34" t="n">
-        <v>25.54201455183524</v>
+        <v>25.54201455183518</v>
       </c>
       <c r="H34" t="n">
-        <v>17.42440280342106</v>
+        <v>17.42440280342101</v>
       </c>
       <c r="I34" t="n">
-        <v>4.55039723772646</v>
+        <v>4.550397237726408</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.66904496841023</v>
+        <v>20.66904496841018</v>
       </c>
       <c r="S34" t="n">
-        <v>76.13332872048628</v>
+        <v>76.13332872048622</v>
       </c>
       <c r="T34" t="n">
-        <v>85.21259421945574</v>
+        <v>85.21259421945568</v>
       </c>
       <c r="U34" t="n">
         <v>143.927804148772</v>
@@ -3247,13 +3247,13 @@
         <v>110.8247564478766</v>
       </c>
       <c r="W34" t="n">
-        <v>143.980982268353</v>
+        <v>143.9809822683529</v>
       </c>
       <c r="X34" t="n">
-        <v>84.02876531324671</v>
+        <v>84.02876531324665</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.63707924870567</v>
+        <v>76.63707924870562</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>193.6664712258006</v>
       </c>
       <c r="H35" t="n">
-        <v>112.0940057404868</v>
+        <v>112.0940057404867</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.77345968035533</v>
+        <v>30.7734596803553</v>
       </c>
       <c r="V35" t="n">
         <v>107.8710037377947</v>
@@ -3332,7 +3332,7 @@
         <v>150.1993813464447</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.0248539665112</v>
+        <v>166.0248539665111</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3351,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>87.72447279124559</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6386589300076</v>
+        <v>156.3296980140788</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>6.661971053793606</v>
+      </c>
+      <c r="U37" t="n">
+        <v>65.37718098310988</v>
+      </c>
+      <c r="V37" t="n">
+        <v>32.27413328221448</v>
+      </c>
+      <c r="W37" t="n">
+        <v>65.43035910269086</v>
+      </c>
+      <c r="X37" t="n">
+        <v>5.478142147584578</v>
+      </c>
+      <c r="Y37" t="n">
         <v>182.7786292662005</v>
-      </c>
-      <c r="T37" t="n">
-        <v>6.661971053793634</v>
-      </c>
-      <c r="U37" t="n">
-        <v>65.37718098310991</v>
-      </c>
-      <c r="V37" t="n">
-        <v>32.27413328221451</v>
-      </c>
-      <c r="W37" t="n">
-        <v>65.43035910269089</v>
-      </c>
-      <c r="X37" t="n">
-        <v>5.478142147584606</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>163.0541922066704</v>
+        <v>163.0541922066703</v>
       </c>
       <c r="C38" t="n">
-        <v>146.322877894218</v>
+        <v>146.3228778942179</v>
       </c>
       <c r="D38" t="n">
-        <v>135.9425149698737</v>
+        <v>135.9425149698736</v>
       </c>
       <c r="E38" t="n">
-        <v>162.4558179705628</v>
+        <v>162.4558179705627</v>
       </c>
       <c r="F38" t="n">
-        <v>186.6316456958162</v>
+        <v>186.6316456958161</v>
       </c>
       <c r="G38" t="n">
-        <v>193.6664712258006</v>
+        <v>193.6664712258005</v>
       </c>
       <c r="H38" t="n">
-        <v>112.0940057404867</v>
+        <v>112.0940057404866</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.7734596803553</v>
+        <v>30.77345968035522</v>
       </c>
       <c r="V38" t="n">
-        <v>107.8710037377947</v>
+        <v>107.8710037377946</v>
       </c>
       <c r="W38" t="n">
-        <v>129.8678992158299</v>
+        <v>129.8678992158298</v>
       </c>
       <c r="X38" t="n">
-        <v>150.1993813464447</v>
+        <v>150.1993813464446</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.0248539665111</v>
+        <v>166.024853966511</v>
       </c>
     </row>
     <row r="39">
@@ -3585,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.21879642024862</v>
+        <v>44.1308741929479</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>163.910357368393</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6386589300076</v>
+        <v>3.976441145282855</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>36.1166374094116</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>146.661991856789</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.661971053793605</v>
+        <v>6.661971053793521</v>
       </c>
       <c r="U40" t="n">
-        <v>65.37718098310988</v>
+        <v>65.3771809831098</v>
       </c>
       <c r="V40" t="n">
-        <v>32.27413328221448</v>
+        <v>32.27413328221439</v>
       </c>
       <c r="W40" t="n">
-        <v>65.43035910269086</v>
+        <v>65.43035910269077</v>
       </c>
       <c r="X40" t="n">
-        <v>5.478142147584578</v>
+        <v>188.2567714137854</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T42" t="n">
-        <v>136.3928213578291</v>
+        <v>89.31768434401506</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6386589300076</v>
+        <v>30.76167301892193</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -4068,13 +4068,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>133.0218198993741</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>55.80302347912538</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1283.227384751938</v>
+        <v>794.8974862538164</v>
       </c>
       <c r="C11" t="n">
-        <v>1035.790471952483</v>
+        <v>547.4605734543615</v>
       </c>
       <c r="D11" t="n">
-        <v>798.8387742281232</v>
+        <v>310.5088757300017</v>
       </c>
       <c r="E11" t="n">
-        <v>535.1059623616532</v>
+        <v>310.5088757300017</v>
       </c>
       <c r="F11" t="n">
-        <v>246.9531224898766</v>
+        <v>310.5088757300017</v>
       </c>
       <c r="G11" t="n">
-        <v>246.9531224898766</v>
+        <v>310.5088757300017</v>
       </c>
       <c r="H11" t="n">
-        <v>34.09082802752391</v>
+        <v>97.646581267649</v>
       </c>
       <c r="I11" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J11" t="n">
-        <v>77.64171918777319</v>
+        <v>77.64171918777333</v>
       </c>
       <c r="K11" t="n">
-        <v>265.1898083646868</v>
+        <v>265.189808364687</v>
       </c>
       <c r="L11" t="n">
         <v>549.8288752482732</v>
@@ -5060,31 +5060,31 @@
         <v>1644.280225347655</v>
       </c>
       <c r="Q11" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R11" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="S11" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="T11" t="n">
-        <v>1704.541401376196</v>
+        <v>1604.905375338577</v>
       </c>
       <c r="U11" t="n">
-        <v>1704.541401376196</v>
+        <v>1474.185046593528</v>
       </c>
       <c r="V11" t="n">
-        <v>1495.944765502421</v>
+        <v>1265.588410719753</v>
       </c>
       <c r="W11" t="n">
-        <v>1495.944765502421</v>
+        <v>1034.772688504529</v>
       </c>
       <c r="X11" t="n">
-        <v>1495.944765502421</v>
+        <v>794.8974862538164</v>
       </c>
       <c r="Y11" t="n">
-        <v>1283.227384751938</v>
+        <v>794.8974862538164</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>301.0900197270594</v>
+        <v>177.8349166891986</v>
       </c>
       <c r="C12" t="n">
-        <v>251.5920076867375</v>
+        <v>128.3369046488766</v>
       </c>
       <c r="D12" t="n">
-        <v>227.2588040835423</v>
+        <v>104.0037010456814</v>
       </c>
       <c r="E12" t="n">
-        <v>192.9043781242578</v>
+        <v>69.64927508639697</v>
       </c>
       <c r="F12" t="n">
-        <v>47.94858814087472</v>
+        <v>47.94858814087471</v>
       </c>
       <c r="G12" t="n">
         <v>34.09082802752391</v>
@@ -5118,16 +5118,16 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J12" t="n">
-        <v>67.81148563097685</v>
+        <v>67.81148563097682</v>
       </c>
       <c r="K12" t="n">
-        <v>252.0510736548811</v>
+        <v>252.051073654881</v>
       </c>
       <c r="L12" t="n">
-        <v>560.6335432935728</v>
+        <v>560.6335432935726</v>
       </c>
       <c r="M12" t="n">
-        <v>973.5349245418565</v>
+        <v>973.5349245418563</v>
       </c>
       <c r="N12" t="n">
         <v>1001.829782463883</v>
@@ -5139,10 +5139,10 @@
         <v>1587.792410277645</v>
       </c>
       <c r="Q12" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R12" t="n">
-        <v>1704.541401376196</v>
+        <v>1626.542617113318</v>
       </c>
       <c r="S12" t="n">
         <v>1546.791561860037</v>
@@ -5154,16 +5154,16 @@
         <v>1120.643434284736</v>
       </c>
       <c r="V12" t="n">
-        <v>886.3921908103367</v>
+        <v>886.392190810337</v>
       </c>
       <c r="W12" t="n">
-        <v>633.87769914367</v>
+        <v>633.8776991436703</v>
       </c>
       <c r="X12" t="n">
-        <v>427.3508005492476</v>
+        <v>550.6059035871086</v>
       </c>
       <c r="Y12" t="n">
-        <v>344.877467810759</v>
+        <v>344.8774678107591</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>261.4051868299498</v>
+        <v>265.5751708825945</v>
       </c>
       <c r="C13" t="n">
-        <v>215.6334687251821</v>
+        <v>219.8034527778268</v>
       </c>
       <c r="D13" t="n">
-        <v>188.3778985160538</v>
+        <v>192.5478825686984</v>
       </c>
       <c r="E13" t="n">
         <v>167.3437692699945</v>
@@ -5197,19 +5197,19 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J13" t="n">
-        <v>83.45962932283537</v>
+        <v>83.45962932283535</v>
       </c>
       <c r="K13" t="n">
-        <v>216.7776820939541</v>
+        <v>216.7776820939544</v>
       </c>
       <c r="L13" t="n">
-        <v>409.3994443472051</v>
+        <v>409.3994443472053</v>
       </c>
       <c r="M13" t="n">
-        <v>616.5181956441178</v>
+        <v>616.518195644118</v>
       </c>
       <c r="N13" t="n">
-        <v>826.7257971805966</v>
+        <v>826.7257971805968</v>
       </c>
       <c r="O13" t="n">
         <v>1014.771769283489</v>
@@ -5227,22 +5227,22 @@
         <v>1092.927789657317</v>
       </c>
       <c r="T13" t="n">
-        <v>986.5624999289978</v>
+        <v>986.5624999289979</v>
       </c>
       <c r="U13" t="n">
-        <v>820.8889173427829</v>
+        <v>825.0589013954275</v>
       </c>
       <c r="V13" t="n">
-        <v>688.6527566766647</v>
+        <v>692.8227407293093</v>
       </c>
       <c r="W13" t="n">
-        <v>522.9254588181462</v>
+        <v>527.0954428707909</v>
       </c>
       <c r="X13" t="n">
-        <v>417.7559558637756</v>
+        <v>421.9259399164201</v>
       </c>
       <c r="Y13" t="n">
-        <v>320.0528024695473</v>
+        <v>324.2227865221919</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1077.470974663307</v>
+        <v>760.9690714732615</v>
       </c>
       <c r="C14" t="n">
-        <v>830.0340618638517</v>
+        <v>760.9690714732615</v>
       </c>
       <c r="D14" t="n">
-        <v>593.082364139492</v>
+        <v>760.9690714732615</v>
       </c>
       <c r="E14" t="n">
-        <v>329.3495522730218</v>
+        <v>497.2362596067916</v>
       </c>
       <c r="F14" t="n">
-        <v>329.3495522730218</v>
+        <v>209.0834197350153</v>
       </c>
       <c r="G14" t="n">
         <v>34.09082802752391</v>
@@ -5276,52 +5276,52 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J14" t="n">
-        <v>77.64171918777311</v>
+        <v>77.64171918777316</v>
       </c>
       <c r="K14" t="n">
-        <v>265.189808364687</v>
+        <v>265.1898083646868</v>
       </c>
       <c r="L14" t="n">
-        <v>549.8288752482733</v>
+        <v>549.8288752482729</v>
       </c>
       <c r="M14" t="n">
-        <v>881.7569750909472</v>
+        <v>881.7569750909466</v>
       </c>
       <c r="N14" t="n">
-        <v>1203.53884361695</v>
+        <v>1203.538843616949</v>
       </c>
       <c r="O14" t="n">
-        <v>1461.259986043749</v>
+        <v>1461.259986043748</v>
       </c>
       <c r="P14" t="n">
         <v>1644.280225347655</v>
       </c>
       <c r="Q14" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R14" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="S14" t="n">
-        <v>1704.541401376196</v>
+        <v>1631.961165109929</v>
       </c>
       <c r="T14" t="n">
-        <v>1704.541401376196</v>
+        <v>1631.961165109929</v>
       </c>
       <c r="U14" t="n">
-        <v>1704.541401376196</v>
+        <v>1501.240836364881</v>
       </c>
       <c r="V14" t="n">
-        <v>1609.146103681151</v>
+        <v>1292.644200491106</v>
       </c>
       <c r="W14" t="n">
-        <v>1609.146103681151</v>
+        <v>1292.644200491106</v>
       </c>
       <c r="X14" t="n">
-        <v>1609.146103681151</v>
+        <v>1292.644200491106</v>
       </c>
       <c r="Y14" t="n">
-        <v>1341.808204950087</v>
+        <v>1025.306301760042</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>301.0900197270591</v>
+        <v>416.7077637915321</v>
       </c>
       <c r="C15" t="n">
-        <v>251.5920076867373</v>
+        <v>367.2097517512102</v>
       </c>
       <c r="D15" t="n">
-        <v>227.2588040835421</v>
+        <v>342.876548148015</v>
       </c>
       <c r="E15" t="n">
-        <v>192.9043781242578</v>
+        <v>185.2670191508697</v>
       </c>
       <c r="F15" t="n">
-        <v>47.94858814087463</v>
+        <v>163.5663322053475</v>
       </c>
       <c r="G15" t="n">
         <v>34.09082802752391</v>
@@ -5355,52 +5355,52 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J15" t="n">
-        <v>67.81148563097685</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="K15" t="n">
-        <v>252.0510736548811</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="L15" t="n">
-        <v>560.6335432935728</v>
+        <v>342.6732976662155</v>
       </c>
       <c r="M15" t="n">
-        <v>973.5349245418565</v>
+        <v>755.5746789144993</v>
       </c>
       <c r="N15" t="n">
-        <v>1118.578773562433</v>
+        <v>1001.829782463883</v>
       </c>
       <c r="O15" t="n">
-        <v>1452.758916170284</v>
+        <v>1336.009925071733</v>
       </c>
       <c r="P15" t="n">
-        <v>1704.541401376196</v>
+        <v>1587.792410277645</v>
       </c>
       <c r="Q15" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R15" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="S15" t="n">
-        <v>1539.15420288665</v>
+        <v>1539.154202886649</v>
       </c>
       <c r="T15" t="n">
-        <v>1463.168914642146</v>
+        <v>1339.913811604285</v>
       </c>
       <c r="U15" t="n">
-        <v>1243.898537322596</v>
+        <v>1236.261178349209</v>
       </c>
       <c r="V15" t="n">
-        <v>1009.647293848197</v>
+        <v>1002.009934874809</v>
       </c>
       <c r="W15" t="n">
-        <v>757.1328021815307</v>
+        <v>872.7505462460036</v>
       </c>
       <c r="X15" t="n">
-        <v>550.6059035871082</v>
+        <v>789.4787506894421</v>
       </c>
       <c r="Y15" t="n">
-        <v>468.1325708486196</v>
+        <v>583.7503149130926</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>261.4051868299518</v>
+        <v>265.5751708825941</v>
       </c>
       <c r="C16" t="n">
-        <v>215.6334687251841</v>
+        <v>219.8034527778264</v>
       </c>
       <c r="D16" t="n">
-        <v>188.3778985160558</v>
+        <v>192.5478825686981</v>
       </c>
       <c r="E16" t="n">
-        <v>167.3437692699945</v>
+        <v>167.3437692699942</v>
       </c>
       <c r="F16" t="n">
-        <v>142.9634971464368</v>
+        <v>142.9634971464365</v>
       </c>
       <c r="G16" t="n">
-        <v>96.87152021369391</v>
+        <v>96.87152021369359</v>
       </c>
       <c r="H16" t="n">
-        <v>58.97915110763165</v>
+        <v>58.97915110763168</v>
       </c>
       <c r="I16" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J16" t="n">
-        <v>83.45962932283545</v>
+        <v>83.45962932283544</v>
       </c>
       <c r="K16" t="n">
         <v>216.7776820939544</v>
@@ -5443,19 +5443,19 @@
         <v>409.3994443472054</v>
       </c>
       <c r="M16" t="n">
-        <v>616.5181956441182</v>
+        <v>616.5181956441181</v>
       </c>
       <c r="N16" t="n">
-        <v>826.7257971805972</v>
+        <v>826.7257971805969</v>
       </c>
       <c r="O16" t="n">
         <v>1014.771769283489</v>
       </c>
       <c r="P16" t="n">
-        <v>1169.890169899396</v>
+        <v>1169.890169899395</v>
       </c>
       <c r="Q16" t="n">
-        <v>1231.291889568487</v>
+        <v>1231.291889568486</v>
       </c>
       <c r="R16" t="n">
         <v>1190.122104134153</v>
@@ -5464,22 +5464,22 @@
         <v>1092.927789657318</v>
       </c>
       <c r="T16" t="n">
-        <v>986.5624999289988</v>
+        <v>986.5624999289985</v>
       </c>
       <c r="U16" t="n">
         <v>820.8889173427845</v>
       </c>
       <c r="V16" t="n">
-        <v>688.6527566766665</v>
+        <v>688.6527566766664</v>
       </c>
       <c r="W16" t="n">
-        <v>522.9254588181482</v>
+        <v>522.9254588181479</v>
       </c>
       <c r="X16" t="n">
-        <v>417.7559558637773</v>
+        <v>417.7559558637771</v>
       </c>
       <c r="Y16" t="n">
-        <v>320.0528024695492</v>
+        <v>324.2227865221915</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.9335608347649</v>
+        <v>964.9335608347644</v>
       </c>
       <c r="C17" t="n">
-        <v>819.7554060624217</v>
+        <v>819.7554060624213</v>
       </c>
       <c r="D17" t="n">
-        <v>685.0624663651737</v>
+        <v>685.0624663651736</v>
       </c>
       <c r="E17" t="n">
-        <v>523.5884125258156</v>
+        <v>523.5884125258154</v>
       </c>
       <c r="F17" t="n">
-        <v>337.694330681151</v>
+        <v>337.6943306811509</v>
       </c>
       <c r="G17" t="n">
         <v>144.6943644627648</v>
@@ -5513,37 +5513,37 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J17" t="n">
-        <v>77.64171918777322</v>
+        <v>77.64171918777276</v>
       </c>
       <c r="K17" t="n">
-        <v>265.1898083646869</v>
+        <v>265.1898083646864</v>
       </c>
       <c r="L17" t="n">
-        <v>549.8288752482732</v>
+        <v>549.8288752482727</v>
       </c>
       <c r="M17" t="n">
-        <v>881.756975090947</v>
+        <v>881.7569750909465</v>
       </c>
       <c r="N17" t="n">
-        <v>1203.53884361695</v>
+        <v>1203.538843616949</v>
       </c>
       <c r="O17" t="n">
-        <v>1461.259986043749</v>
+        <v>1461.259986043748</v>
       </c>
       <c r="P17" t="n">
         <v>1644.280225347655</v>
       </c>
       <c r="Q17" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R17" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="S17" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="T17" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="U17" t="n">
         <v>1676.079830658259</v>
@@ -5552,13 +5552,13 @@
         <v>1569.741952811596</v>
       </c>
       <c r="W17" t="n">
-        <v>1441.184988623484</v>
+        <v>1441.184988623483</v>
       </c>
       <c r="X17" t="n">
         <v>1292.091173798386</v>
       </c>
       <c r="Y17" t="n">
-        <v>1127.012033094434</v>
+        <v>1127.012033094433</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>656.9975687272913</v>
+        <v>650.1684322303784</v>
       </c>
       <c r="C18" t="n">
-        <v>484.2444536491085</v>
+        <v>650.1684322303784</v>
       </c>
       <c r="D18" t="n">
-        <v>336.6561470080524</v>
+        <v>502.5801255893223</v>
       </c>
       <c r="E18" t="n">
-        <v>179.0466180109071</v>
+        <v>502.5801255893223</v>
       </c>
       <c r="F18" t="n">
-        <v>34.09082802752391</v>
+        <v>357.6243356059392</v>
       </c>
       <c r="G18" t="n">
-        <v>34.09082802752391</v>
+        <v>220.5114724547275</v>
       </c>
       <c r="H18" t="n">
-        <v>34.09082802752391</v>
+        <v>111.6790957051195</v>
       </c>
       <c r="I18" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J18" t="n">
-        <v>34.09082802752391</v>
+        <v>67.81148563097682</v>
       </c>
       <c r="K18" t="n">
-        <v>218.3304160514282</v>
+        <v>67.81148563097682</v>
       </c>
       <c r="L18" t="n">
-        <v>526.9128856901199</v>
+        <v>376.3939552696685</v>
       </c>
       <c r="M18" t="n">
-        <v>939.8142669384036</v>
+        <v>789.2953365179521</v>
       </c>
       <c r="N18" t="n">
-        <v>1118.578773562433</v>
+        <v>1211.16933335856</v>
       </c>
       <c r="O18" t="n">
-        <v>1452.758916170284</v>
+        <v>1545.349475966411</v>
       </c>
       <c r="P18" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="Q18" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R18" t="n">
-        <v>1664.328402013228</v>
+        <v>1626.542617113318</v>
       </c>
       <c r="S18" t="n">
-        <v>1498.941203523682</v>
+        <v>1626.542617113318</v>
       </c>
       <c r="T18" t="n">
-        <v>1498.941203523682</v>
+        <v>1492.112067026768</v>
       </c>
       <c r="U18" t="n">
-        <v>1497.547328295717</v>
+        <v>1490.718191798804</v>
       </c>
       <c r="V18" t="n">
-        <v>1488.809945886291</v>
+        <v>1481.980809389378</v>
       </c>
       <c r="W18" t="n">
-        <v>1236.295454219624</v>
+        <v>1229.466317722711</v>
       </c>
       <c r="X18" t="n">
-        <v>1029.768555625201</v>
+        <v>1022.939419128288</v>
       </c>
       <c r="Y18" t="n">
-        <v>824.0401198488518</v>
+        <v>817.2109833519388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.92664734419861</v>
+        <v>231.829366021657</v>
       </c>
       <c r="C19" t="n">
-        <v>49.92664734419861</v>
+        <v>62.80254487902835</v>
       </c>
       <c r="D19" t="n">
-        <v>49.92664734419861</v>
+        <v>62.80254487902835</v>
       </c>
       <c r="E19" t="n">
-        <v>49.92664734419861</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="F19" t="n">
         <v>34.09082802752391</v>
@@ -5674,43 +5674,43 @@
         <v>34.09082802752391</v>
       </c>
       <c r="K19" t="n">
-        <v>46.60655431123536</v>
+        <v>46.60655431123534</v>
       </c>
       <c r="L19" t="n">
         <v>118.4259900770789</v>
       </c>
       <c r="M19" t="n">
-        <v>204.7424148865842</v>
+        <v>204.7424148865841</v>
       </c>
       <c r="N19" t="n">
-        <v>294.1476899356556</v>
+        <v>294.1476899356555</v>
       </c>
       <c r="O19" t="n">
-        <v>361.3913355511399</v>
+        <v>361.3913355511398</v>
       </c>
       <c r="P19" t="n">
-        <v>395.7074096796391</v>
+        <v>395.7074096796389</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.7074096796391</v>
+        <v>395.7074096796389</v>
       </c>
       <c r="R19" t="n">
-        <v>395.7074096796391</v>
+        <v>395.7074096796389</v>
       </c>
       <c r="S19" t="n">
-        <v>395.7074096796391</v>
+        <v>395.7074096796389</v>
       </c>
       <c r="T19" t="n">
-        <v>391.6008779784316</v>
+        <v>391.6008779784315</v>
       </c>
       <c r="U19" t="n">
-        <v>328.186053419329</v>
+        <v>328.1860534193289</v>
       </c>
       <c r="V19" t="n">
-        <v>298.2086507803227</v>
+        <v>298.2086507803226</v>
       </c>
       <c r="W19" t="n">
-        <v>234.740110948916</v>
+        <v>234.7401109489159</v>
       </c>
       <c r="X19" t="n">
         <v>231.829366021657</v>
@@ -5726,61 +5726,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.9335608347649</v>
+        <v>964.9335608347644</v>
       </c>
       <c r="C20" t="n">
-        <v>819.7554060624217</v>
+        <v>819.7554060624213</v>
       </c>
       <c r="D20" t="n">
-        <v>685.0624663651737</v>
+        <v>685.0624663651736</v>
       </c>
       <c r="E20" t="n">
-        <v>523.5884125258156</v>
+        <v>523.5884125258154</v>
       </c>
       <c r="F20" t="n">
-        <v>337.6943306811507</v>
+        <v>337.6943306811509</v>
       </c>
       <c r="G20" t="n">
         <v>144.6943644627648</v>
       </c>
       <c r="H20" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I20" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="J20" t="n">
-        <v>77.64171918777319</v>
+        <v>77.64171918777276</v>
       </c>
       <c r="K20" t="n">
-        <v>265.1898083646869</v>
+        <v>265.1898083646864</v>
       </c>
       <c r="L20" t="n">
-        <v>549.8288752482733</v>
+        <v>549.8288752482727</v>
       </c>
       <c r="M20" t="n">
-        <v>881.7569750909472</v>
+        <v>881.7569750909465</v>
       </c>
       <c r="N20" t="n">
-        <v>1203.53884361695</v>
+        <v>1203.538843616949</v>
       </c>
       <c r="O20" t="n">
-        <v>1461.259986043749</v>
+        <v>1461.259986043748</v>
       </c>
       <c r="P20" t="n">
-        <v>1644.280225347656</v>
+        <v>1644.280225347655</v>
       </c>
       <c r="Q20" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R20" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="S20" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="T20" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="U20" t="n">
         <v>1676.079830658259</v>
@@ -5789,13 +5789,13 @@
         <v>1569.741952811596</v>
       </c>
       <c r="W20" t="n">
-        <v>1441.184988623484</v>
+        <v>1441.184988623483</v>
       </c>
       <c r="X20" t="n">
         <v>1292.091173798386</v>
       </c>
       <c r="Y20" t="n">
-        <v>1127.012033094434</v>
+        <v>1127.012033094433</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>463.2646264963709</v>
+        <v>550.8741165300555</v>
       </c>
       <c r="C21" t="n">
-        <v>290.5115114181881</v>
+        <v>378.1210014518728</v>
       </c>
       <c r="D21" t="n">
-        <v>142.9232047771319</v>
+        <v>378.1210014518728</v>
       </c>
       <c r="E21" t="n">
-        <v>142.9232047771319</v>
+        <v>220.5114724547275</v>
       </c>
       <c r="F21" t="n">
-        <v>142.9232047771319</v>
+        <v>220.5114724547275</v>
       </c>
       <c r="G21" t="n">
-        <v>142.9232047771319</v>
+        <v>220.5114724547275</v>
       </c>
       <c r="H21" t="n">
-        <v>34.09082802752392</v>
+        <v>111.6790957051195</v>
       </c>
       <c r="I21" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="J21" t="n">
-        <v>67.81148563097685</v>
+        <v>67.81148563097682</v>
       </c>
       <c r="K21" t="n">
-        <v>192.6520773441498</v>
+        <v>67.81148563097682</v>
       </c>
       <c r="L21" t="n">
-        <v>501.2345469828415</v>
+        <v>376.3939552696685</v>
       </c>
       <c r="M21" t="n">
-        <v>914.1359282311253</v>
+        <v>789.2953365179521</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.009925071734</v>
+        <v>1211.16933335856</v>
       </c>
       <c r="O21" t="n">
-        <v>1336.009925071734</v>
+        <v>1545.349475966411</v>
       </c>
       <c r="P21" t="n">
-        <v>1587.792410277646</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="Q21" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R21" t="n">
         <v>1626.542617113318</v>
       </c>
       <c r="S21" t="n">
-        <v>1626.542617113318</v>
+        <v>1461.155418623772</v>
       </c>
       <c r="T21" t="n">
-        <v>1427.302225830954</v>
+        <v>1461.155418623772</v>
       </c>
       <c r="U21" t="n">
-        <v>1200.394489538017</v>
+        <v>1449.895186041894</v>
       </c>
       <c r="V21" t="n">
-        <v>1128.03445253381</v>
+        <v>1215.643942567494</v>
       </c>
       <c r="W21" t="n">
-        <v>875.5199608671429</v>
+        <v>963.1294509008276</v>
       </c>
       <c r="X21" t="n">
-        <v>668.9930622727204</v>
+        <v>756.6025523064051</v>
       </c>
       <c r="Y21" t="n">
-        <v>463.2646264963709</v>
+        <v>550.8741165300555</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.92664734419861</v>
+        <v>171.2226862764099</v>
       </c>
       <c r="C22" t="n">
-        <v>49.92664734419861</v>
+        <v>171.2226862764099</v>
       </c>
       <c r="D22" t="n">
-        <v>49.92664734419861</v>
+        <v>171.2226862764099</v>
       </c>
       <c r="E22" t="n">
-        <v>34.09082802752392</v>
+        <v>171.2226862764099</v>
       </c>
       <c r="F22" t="n">
-        <v>34.09082802752392</v>
+        <v>171.2226862764099</v>
       </c>
       <c r="G22" t="n">
-        <v>34.09082802752392</v>
+        <v>171.2226862764099</v>
       </c>
       <c r="H22" t="n">
-        <v>34.09082802752392</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="I22" t="n">
-        <v>34.09082802752392</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="J22" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="K22" t="n">
-        <v>46.60655431123536</v>
+        <v>46.60655431123534</v>
       </c>
       <c r="L22" t="n">
         <v>118.4259900770789</v>
       </c>
       <c r="M22" t="n">
-        <v>204.7424148865842</v>
+        <v>204.7424148865841</v>
       </c>
       <c r="N22" t="n">
-        <v>294.1476899356556</v>
+        <v>294.1476899356555</v>
       </c>
       <c r="O22" t="n">
-        <v>361.3913355511399</v>
+        <v>361.3913355511398</v>
       </c>
       <c r="P22" t="n">
-        <v>395.7074096796391</v>
+        <v>395.7074096796389</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.7074096796391</v>
+        <v>335.1007299343919</v>
       </c>
       <c r="R22" t="n">
-        <v>395.7074096796391</v>
+        <v>335.1007299343919</v>
       </c>
       <c r="S22" t="n">
-        <v>395.7074096796391</v>
+        <v>335.1007299343919</v>
       </c>
       <c r="T22" t="n">
-        <v>391.6008779784316</v>
+        <v>330.9941982331845</v>
       </c>
       <c r="U22" t="n">
-        <v>328.186053419329</v>
+        <v>267.5793736740818</v>
       </c>
       <c r="V22" t="n">
-        <v>298.2086507803227</v>
+        <v>237.6019710350755</v>
       </c>
       <c r="W22" t="n">
-        <v>234.740110948916</v>
+        <v>174.1334312036689</v>
       </c>
       <c r="X22" t="n">
-        <v>231.829366021657</v>
+        <v>171.2226862764099</v>
       </c>
       <c r="Y22" t="n">
-        <v>231.829366021657</v>
+        <v>171.2226862764099</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.9335608347656</v>
+        <v>964.9335608347644</v>
       </c>
       <c r="C23" t="n">
-        <v>819.7554060624225</v>
+        <v>819.7554060624213</v>
       </c>
       <c r="D23" t="n">
-        <v>685.0624663651745</v>
+        <v>685.0624663651733</v>
       </c>
       <c r="E23" t="n">
-        <v>523.5884125258164</v>
+        <v>523.5884125258152</v>
       </c>
       <c r="F23" t="n">
-        <v>337.6943306811518</v>
+        <v>337.6943306811506</v>
       </c>
       <c r="G23" t="n">
         <v>144.6943644627648</v>
@@ -5987,13 +5987,13 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J23" t="n">
-        <v>77.64171918777322</v>
+        <v>77.64171918777313</v>
       </c>
       <c r="K23" t="n">
-        <v>265.1898083646869</v>
+        <v>265.1898083646868</v>
       </c>
       <c r="L23" t="n">
-        <v>549.8288752482732</v>
+        <v>549.8288752482731</v>
       </c>
       <c r="M23" t="n">
         <v>881.756975090947</v>
@@ -6008,31 +6008,31 @@
         <v>1644.280225347655</v>
       </c>
       <c r="Q23" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R23" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="S23" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="T23" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="U23" t="n">
-        <v>1676.07983065826</v>
+        <v>1676.079830658259</v>
       </c>
       <c r="V23" t="n">
-        <v>1569.741952811597</v>
+        <v>1569.741952811596</v>
       </c>
       <c r="W23" t="n">
-        <v>1441.184988623484</v>
+        <v>1441.184988623483</v>
       </c>
       <c r="X23" t="n">
-        <v>1292.091173798387</v>
+        <v>1292.091173798386</v>
       </c>
       <c r="Y23" t="n">
-        <v>1127.012033094434</v>
+        <v>1127.012033094433</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.9975687272913</v>
+        <v>784.598982316928</v>
       </c>
       <c r="C24" t="n">
-        <v>484.2444536491085</v>
+        <v>611.8458672387451</v>
       </c>
       <c r="D24" t="n">
-        <v>336.6561470080524</v>
+        <v>464.257560597689</v>
       </c>
       <c r="E24" t="n">
-        <v>179.0466180109071</v>
+        <v>306.6480316005436</v>
       </c>
       <c r="F24" t="n">
-        <v>34.09082802752391</v>
+        <v>161.6922416171605</v>
       </c>
       <c r="G24" t="n">
         <v>34.09082802752391</v>
@@ -6066,52 +6066,52 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J24" t="n">
-        <v>42.76382301685692</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="K24" t="n">
-        <v>227.0034110407612</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="L24" t="n">
-        <v>535.5858806794529</v>
+        <v>342.6732976662155</v>
       </c>
       <c r="M24" t="n">
-        <v>948.4872619277367</v>
+        <v>755.5746789144993</v>
       </c>
       <c r="N24" t="n">
-        <v>1370.361258768345</v>
+        <v>1177.448675755108</v>
       </c>
       <c r="O24" t="n">
-        <v>1704.541401376196</v>
+        <v>1511.628818362958</v>
       </c>
       <c r="P24" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="Q24" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R24" t="n">
-        <v>1704.541401376196</v>
+        <v>1626.542617113318</v>
       </c>
       <c r="S24" t="n">
-        <v>1704.541401376196</v>
+        <v>1626.542617113318</v>
       </c>
       <c r="T24" t="n">
-        <v>1704.541401376196</v>
+        <v>1626.542617113318</v>
       </c>
       <c r="U24" t="n">
-        <v>1703.147526148231</v>
+        <v>1625.148741885354</v>
       </c>
       <c r="V24" t="n">
-        <v>1488.809945886291</v>
+        <v>1616.411359475927</v>
       </c>
       <c r="W24" t="n">
-        <v>1236.295454219624</v>
+        <v>1363.89686780926</v>
       </c>
       <c r="X24" t="n">
-        <v>1029.768555625201</v>
+        <v>1157.369969214838</v>
       </c>
       <c r="Y24" t="n">
-        <v>824.0401198488518</v>
+        <v>951.6415334384884</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.9747431301624</v>
+        <v>231.829366021657</v>
       </c>
       <c r="C25" t="n">
-        <v>106.9747431301624</v>
+        <v>231.829366021657</v>
       </c>
       <c r="D25" t="n">
-        <v>106.9747431301624</v>
+        <v>231.829366021657</v>
       </c>
       <c r="E25" t="n">
-        <v>106.9747431301624</v>
+        <v>231.829366021657</v>
       </c>
       <c r="F25" t="n">
-        <v>106.9747431301624</v>
+        <v>231.829366021657</v>
       </c>
       <c r="G25" t="n">
-        <v>106.9747431301624</v>
+        <v>231.829366021657</v>
       </c>
       <c r="H25" t="n">
         <v>106.9747431301624</v>
@@ -6148,49 +6148,49 @@
         <v>34.09082802752391</v>
       </c>
       <c r="K25" t="n">
-        <v>46.60655431123536</v>
+        <v>46.60655431123534</v>
       </c>
       <c r="L25" t="n">
         <v>118.4259900770789</v>
       </c>
       <c r="M25" t="n">
-        <v>204.7424148865842</v>
+        <v>204.7424148865841</v>
       </c>
       <c r="N25" t="n">
-        <v>294.1476899356556</v>
+        <v>294.1476899356555</v>
       </c>
       <c r="O25" t="n">
-        <v>361.3913355511399</v>
+        <v>361.3913355511398</v>
       </c>
       <c r="P25" t="n">
-        <v>395.7074096796391</v>
+        <v>395.7074096796389</v>
       </c>
       <c r="Q25" t="n">
-        <v>395.7074096796391</v>
+        <v>395.7074096796389</v>
       </c>
       <c r="R25" t="n">
-        <v>395.7074096796391</v>
+        <v>395.7074096796389</v>
       </c>
       <c r="S25" t="n">
-        <v>395.7074096796391</v>
+        <v>395.7074096796389</v>
       </c>
       <c r="T25" t="n">
-        <v>391.6008779784317</v>
+        <v>391.6008779784315</v>
       </c>
       <c r="U25" t="n">
-        <v>328.186053419329</v>
+        <v>328.1860534193289</v>
       </c>
       <c r="V25" t="n">
-        <v>298.2086507803227</v>
+        <v>298.2086507803226</v>
       </c>
       <c r="W25" t="n">
-        <v>234.7401109489161</v>
+        <v>234.7401109489159</v>
       </c>
       <c r="X25" t="n">
-        <v>231.8293660216571</v>
+        <v>231.829366021657</v>
       </c>
       <c r="Y25" t="n">
-        <v>231.8293660216571</v>
+        <v>231.829366021657</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>1296.495985797049</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.836250306609</v>
+        <v>1079.836250306608</v>
       </c>
       <c r="E26" t="n">
-        <v>836.3954006740586</v>
+        <v>836.3954006740581</v>
       </c>
       <c r="F26" t="n">
-        <v>568.5345230362018</v>
+        <v>568.5345230362013</v>
       </c>
       <c r="G26" t="n">
-        <v>293.5677610246235</v>
+        <v>293.567761024623</v>
       </c>
       <c r="H26" t="n">
-        <v>100.9974287961898</v>
+        <v>100.9974287961899</v>
       </c>
       <c r="I26" t="n">
         <v>57.73363778998429</v>
@@ -6227,10 +6227,10 @@
         <v>241.9750076231056</v>
       </c>
       <c r="K26" t="n">
-        <v>570.2135754728913</v>
+        <v>570.2135754728911</v>
       </c>
       <c r="L26" t="n">
-        <v>995.5431210293497</v>
+        <v>995.5431210293493</v>
       </c>
       <c r="M26" t="n">
         <v>1468.161699544895</v>
@@ -6239,7 +6239,7 @@
         <v>1930.63404674377</v>
       </c>
       <c r="O26" t="n">
-        <v>2329.04566784344</v>
+        <v>2329.045667843441</v>
       </c>
       <c r="P26" t="n">
         <v>2652.756385820219</v>
@@ -6254,19 +6254,19 @@
         <v>2834.393615466868</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.049551663169</v>
+        <v>2755.049551663168</v>
       </c>
       <c r="U26" t="n">
-        <v>2644.62118515204</v>
+        <v>2644.621185152039</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.316511512185</v>
+        <v>2456.316511512184</v>
       </c>
       <c r="W26" t="n">
-        <v>2245.79275153088</v>
+        <v>2245.792751530879</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.73214091259</v>
+        <v>2014.732140912589</v>
       </c>
       <c r="Y26" t="n">
         <v>1767.686204415445</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>680.6403784897517</v>
+        <v>768.6129212488972</v>
       </c>
       <c r="C27" t="n">
-        <v>507.8872634115689</v>
+        <v>595.8598061707144</v>
       </c>
       <c r="D27" t="n">
-        <v>360.2989567705127</v>
+        <v>448.2714995296582</v>
       </c>
       <c r="E27" t="n">
-        <v>202.6894277733674</v>
+        <v>290.6619705325129</v>
       </c>
       <c r="F27" t="n">
-        <v>57.73363778998429</v>
+        <v>145.7061805491298</v>
       </c>
       <c r="G27" t="n">
         <v>57.73363778998429</v>
@@ -6309,10 +6309,10 @@
         <v>275.6938834173415</v>
       </c>
       <c r="L27" t="n">
-        <v>584.2763530560331</v>
+        <v>584.276353056033</v>
       </c>
       <c r="M27" t="n">
-        <v>997.1777343043169</v>
+        <v>997.1777343043168</v>
       </c>
       <c r="N27" t="n">
         <v>1436.406118491269</v>
@@ -6321,7 +6321,7 @@
         <v>1770.58626109912</v>
       </c>
       <c r="P27" t="n">
-        <v>2022.368746305032</v>
+        <v>2022.368746305031</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.117737403582</v>
@@ -6333,22 +6333,22 @@
         <v>2117.277604185816</v>
       </c>
       <c r="T27" t="n">
-        <v>1973.611735416087</v>
+        <v>2061.584278175233</v>
       </c>
       <c r="U27" t="n">
-        <v>1746.70399912315</v>
+        <v>1834.676541882296</v>
       </c>
       <c r="V27" t="n">
-        <v>1512.452755648751</v>
+        <v>1600.425298407896</v>
       </c>
       <c r="W27" t="n">
-        <v>1259.938263982084</v>
+        <v>1347.91080674123</v>
       </c>
       <c r="X27" t="n">
-        <v>1053.411365387662</v>
+        <v>1141.383908146807</v>
       </c>
       <c r="Y27" t="n">
-        <v>847.6829296113121</v>
+        <v>935.6554723704577</v>
       </c>
     </row>
     <row r="28">
@@ -6376,19 +6376,19 @@
         <v>79.93040550831489</v>
       </c>
       <c r="H28" t="n">
-        <v>62.32999863617251</v>
+        <v>62.32999863617252</v>
       </c>
       <c r="I28" t="n">
         <v>57.73363778998429</v>
       </c>
       <c r="J28" t="n">
-        <v>69.45539811559016</v>
+        <v>69.45539811559024</v>
       </c>
       <c r="K28" t="n">
-        <v>81.9711243993016</v>
+        <v>222.6616030721737</v>
       </c>
       <c r="L28" t="n">
-        <v>294.4810388380172</v>
+        <v>435.1715175108893</v>
       </c>
       <c r="M28" t="n">
         <v>521.4879423203945</v>
@@ -6397,7 +6397,7 @@
         <v>610.8932173694659</v>
       </c>
       <c r="O28" t="n">
-        <v>678.1368629849502</v>
+        <v>818.8273416578222</v>
       </c>
       <c r="P28" t="n">
         <v>853.1434157863214</v>
@@ -6443,31 +6443,31 @@
         <v>1296.495985797049</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.836250306609</v>
+        <v>1079.836250306608</v>
       </c>
       <c r="E29" t="n">
-        <v>836.3954006740588</v>
+        <v>836.395400674058</v>
       </c>
       <c r="F29" t="n">
-        <v>568.5345230362019</v>
+        <v>568.5345230362011</v>
       </c>
       <c r="G29" t="n">
-        <v>293.5677610246235</v>
+        <v>293.5677610246227</v>
       </c>
       <c r="H29" t="n">
-        <v>100.9974287961899</v>
+        <v>100.9974287961895</v>
       </c>
       <c r="I29" t="n">
         <v>57.73363778998429</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9750076231055</v>
+        <v>241.9750076231057</v>
       </c>
       <c r="K29" t="n">
-        <v>570.2135754728911</v>
+        <v>570.2135754728913</v>
       </c>
       <c r="L29" t="n">
-        <v>995.5431210293493</v>
+        <v>995.5431210293495</v>
       </c>
       <c r="M29" t="n">
         <v>1468.161699544895</v>
@@ -6479,7 +6479,7 @@
         <v>2329.045667843441</v>
       </c>
       <c r="P29" t="n">
-        <v>2652.756385820219</v>
+        <v>2652.75638582022</v>
       </c>
       <c r="Q29" t="n">
         <v>2853.708040521632</v>
@@ -6494,13 +6494,13 @@
         <v>2755.049551663169</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.62118515204</v>
+        <v>2644.621185152039</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.316511512185</v>
+        <v>2456.316511512184</v>
       </c>
       <c r="W29" t="n">
-        <v>2245.79275153088</v>
+        <v>2245.792751530879</v>
       </c>
       <c r="X29" t="n">
         <v>2014.73214091259</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>680.6403784897517</v>
+        <v>768.6129212488972</v>
       </c>
       <c r="C30" t="n">
-        <v>507.8872634115689</v>
+        <v>595.8598061707144</v>
       </c>
       <c r="D30" t="n">
-        <v>360.2989567705127</v>
+        <v>448.2714995296582</v>
       </c>
       <c r="E30" t="n">
-        <v>202.6894277733674</v>
+        <v>290.6619705325129</v>
       </c>
       <c r="F30" t="n">
-        <v>57.73363778998429</v>
+        <v>145.7061805491298</v>
       </c>
       <c r="G30" t="n">
         <v>57.73363778998429</v>
@@ -6546,10 +6546,10 @@
         <v>275.6938834173415</v>
       </c>
       <c r="L30" t="n">
-        <v>584.2763530560331</v>
+        <v>584.276353056033</v>
       </c>
       <c r="M30" t="n">
-        <v>997.1777343043169</v>
+        <v>997.1777343043168</v>
       </c>
       <c r="N30" t="n">
         <v>1436.406118491269</v>
@@ -6558,7 +6558,7 @@
         <v>1770.58626109912</v>
       </c>
       <c r="P30" t="n">
-        <v>2022.368746305032</v>
+        <v>2022.368746305031</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.117737403582</v>
@@ -6570,22 +6570,22 @@
         <v>2117.277604185816</v>
       </c>
       <c r="T30" t="n">
-        <v>1973.611735416087</v>
+        <v>2061.584278175233</v>
       </c>
       <c r="U30" t="n">
-        <v>1746.70399912315</v>
+        <v>1834.676541882296</v>
       </c>
       <c r="V30" t="n">
-        <v>1512.452755648751</v>
+        <v>1600.425298407896</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.938263982084</v>
+        <v>1347.91080674123</v>
       </c>
       <c r="X30" t="n">
-        <v>1053.411365387662</v>
+        <v>1141.383908146807</v>
       </c>
       <c r="Y30" t="n">
-        <v>847.6829296113121</v>
+        <v>935.6554723704577</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.1742450076184</v>
+        <v>147.1742450076182</v>
       </c>
       <c r="C31" t="n">
-        <v>121.6944891367701</v>
+        <v>121.69448913677</v>
       </c>
       <c r="D31" t="n">
-        <v>114.7308811615613</v>
+        <v>114.7308811615611</v>
       </c>
       <c r="E31" t="n">
-        <v>109.8187300967768</v>
+        <v>109.8187300967767</v>
       </c>
       <c r="F31" t="n">
-        <v>105.7304202071385</v>
+        <v>105.7304202071384</v>
       </c>
       <c r="G31" t="n">
-        <v>79.93040550831506</v>
+        <v>79.930405508315</v>
       </c>
       <c r="H31" t="n">
-        <v>62.3299986361726</v>
+        <v>62.32999863617258</v>
       </c>
       <c r="I31" t="n">
         <v>57.73363778998429</v>
       </c>
       <c r="J31" t="n">
-        <v>57.73363778998429</v>
+        <v>126.9905912707603</v>
       </c>
       <c r="K31" t="n">
-        <v>210.9398427465677</v>
+        <v>139.5063175544717</v>
       </c>
       <c r="L31" t="n">
-        <v>282.7592785124112</v>
+        <v>294.4810388380185</v>
       </c>
       <c r="M31" t="n">
-        <v>509.7661819947884</v>
+        <v>521.4879423203957</v>
       </c>
       <c r="N31" t="n">
-        <v>692.1830892240228</v>
+        <v>610.8932173694672</v>
       </c>
       <c r="O31" t="n">
-        <v>900.1172135123791</v>
+        <v>678.1368629849514</v>
       </c>
       <c r="P31" t="n">
-        <v>934.4332876408782</v>
+        <v>853.1434157863225</v>
       </c>
       <c r="Q31" t="n">
-        <v>934.4332876408782</v>
+        <v>934.4332876408779</v>
       </c>
       <c r="R31" t="n">
-        <v>913.5554644404639</v>
+        <v>913.5554644404635</v>
       </c>
       <c r="S31" t="n">
-        <v>836.6531121975485</v>
+        <v>836.6531121975481</v>
       </c>
       <c r="T31" t="n">
-        <v>750.5797847031488</v>
+        <v>750.5797847031484</v>
       </c>
       <c r="U31" t="n">
-        <v>605.1981643508539</v>
+        <v>605.1981643508535</v>
       </c>
       <c r="V31" t="n">
-        <v>493.2539659186553</v>
+        <v>493.253965918655</v>
       </c>
       <c r="W31" t="n">
-        <v>347.8186302940563</v>
+        <v>347.818630294056</v>
       </c>
       <c r="X31" t="n">
-        <v>262.9410895736052</v>
+        <v>262.9410895736049</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.5298984132964</v>
+        <v>185.5298984132962</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1523.640936362586</v>
+        <v>1523.640936362584</v>
       </c>
       <c r="C32" t="n">
-        <v>1296.49598579705</v>
+        <v>1296.495985797049</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.83625030661</v>
+        <v>1079.836250306609</v>
       </c>
       <c r="E32" t="n">
-        <v>836.3954006740594</v>
+        <v>836.3954006740582</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5345230362025</v>
+        <v>568.5345230362013</v>
       </c>
       <c r="G32" t="n">
-        <v>293.5677610246239</v>
+        <v>293.5677610246235</v>
       </c>
       <c r="H32" t="n">
-        <v>100.99742879619</v>
+        <v>100.9974287961899</v>
       </c>
       <c r="I32" t="n">
         <v>57.73363778998429</v>
       </c>
       <c r="J32" t="n">
-        <v>241.9750076231057</v>
+        <v>241.9750076231055</v>
       </c>
       <c r="K32" t="n">
-        <v>570.2135754728913</v>
+        <v>570.2135754728911</v>
       </c>
       <c r="L32" t="n">
-        <v>995.5431210293495</v>
+        <v>995.5431210293493</v>
       </c>
       <c r="M32" t="n">
         <v>1468.161699544895</v>
@@ -6716,7 +6716,7 @@
         <v>2329.045667843441</v>
       </c>
       <c r="P32" t="n">
-        <v>2652.75638582022</v>
+        <v>2652.756385820219</v>
       </c>
       <c r="Q32" t="n">
         <v>2853.708040521632</v>
@@ -6725,25 +6725,25 @@
         <v>2886.681889499214</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.393615466869</v>
+        <v>2834.393615466868</v>
       </c>
       <c r="T32" t="n">
         <v>2755.049551663169</v>
       </c>
       <c r="U32" t="n">
-        <v>2644.621185152041</v>
+        <v>2644.62118515204</v>
       </c>
       <c r="V32" t="n">
-        <v>2456.316511512186</v>
+        <v>2456.316511512185</v>
       </c>
       <c r="W32" t="n">
-        <v>2245.792751530881</v>
+        <v>2245.79275153088</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.732140912591</v>
+        <v>2014.73214091259</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.686204415447</v>
+        <v>1767.686204415445</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>625.0658559771167</v>
+        <v>758.2286461673473</v>
       </c>
       <c r="C33" t="n">
-        <v>452.3127408989339</v>
+        <v>585.4755310891644</v>
       </c>
       <c r="D33" t="n">
-        <v>304.7244342578778</v>
+        <v>437.8872244481083</v>
       </c>
       <c r="E33" t="n">
         <v>280.2776954509631</v>
@@ -6783,10 +6783,10 @@
         <v>275.6938834173415</v>
       </c>
       <c r="L33" t="n">
-        <v>584.2763530560331</v>
+        <v>584.276353056033</v>
       </c>
       <c r="M33" t="n">
-        <v>997.1777343043169</v>
+        <v>997.1777343043168</v>
       </c>
       <c r="N33" t="n">
         <v>1436.406118491269</v>
@@ -6795,7 +6795,7 @@
         <v>1770.58626109912</v>
       </c>
       <c r="P33" t="n">
-        <v>2022.368746305032</v>
+        <v>2022.368746305031</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.117737403582</v>
@@ -6804,25 +6804,25 @@
         <v>2139.117737403582</v>
       </c>
       <c r="S33" t="n">
-        <v>2117.277604185816</v>
+        <v>2106.893329104267</v>
       </c>
       <c r="T33" t="n">
-        <v>1918.037212903452</v>
+        <v>1907.652937821902</v>
       </c>
       <c r="U33" t="n">
-        <v>1691.129476610515</v>
+        <v>1680.745201528965</v>
       </c>
       <c r="V33" t="n">
-        <v>1456.878233136116</v>
+        <v>1446.493958054566</v>
       </c>
       <c r="W33" t="n">
-        <v>1204.363741469449</v>
+        <v>1193.979466387899</v>
       </c>
       <c r="X33" t="n">
-        <v>997.8368428750267</v>
+        <v>1130.999633065257</v>
       </c>
       <c r="Y33" t="n">
-        <v>792.1084070986772</v>
+        <v>925.2711972889077</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.1742450076186</v>
+        <v>147.1742450076182</v>
       </c>
       <c r="C34" t="n">
-        <v>121.6944891367703</v>
+        <v>121.69448913677</v>
       </c>
       <c r="D34" t="n">
-        <v>114.7308811615614</v>
+        <v>114.7308811615611</v>
       </c>
       <c r="E34" t="n">
-        <v>109.8187300967769</v>
+        <v>109.8187300967767</v>
       </c>
       <c r="F34" t="n">
-        <v>105.7304202071386</v>
+        <v>105.7304202071384</v>
       </c>
       <c r="G34" t="n">
-        <v>79.93040550831512</v>
+        <v>79.930405508315</v>
       </c>
       <c r="H34" t="n">
-        <v>62.32999863617263</v>
+        <v>62.32999863617258</v>
       </c>
       <c r="I34" t="n">
         <v>57.73363778998429</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9905912707602</v>
+        <v>126.9905912707603</v>
       </c>
       <c r="K34" t="n">
         <v>139.5063175544717</v>
@@ -6868,40 +6868,40 @@
         <v>438.3326568026924</v>
       </c>
       <c r="N34" t="n">
-        <v>610.8932173694682</v>
+        <v>668.4284105246358</v>
       </c>
       <c r="O34" t="n">
-        <v>678.1368629849525</v>
+        <v>735.67205614012</v>
       </c>
       <c r="P34" t="n">
-        <v>853.1434157863235</v>
+        <v>910.6786089414911</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.4332876408788</v>
+        <v>934.4332876408779</v>
       </c>
       <c r="R34" t="n">
-        <v>913.5554644404644</v>
+        <v>913.5554644404635</v>
       </c>
       <c r="S34" t="n">
-        <v>836.653112197549</v>
+        <v>836.6531121975481</v>
       </c>
       <c r="T34" t="n">
-        <v>750.5797847031492</v>
+        <v>750.5797847031484</v>
       </c>
       <c r="U34" t="n">
-        <v>605.1981643508542</v>
+        <v>605.1981643508535</v>
       </c>
       <c r="V34" t="n">
-        <v>493.2539659186556</v>
+        <v>493.253965918655</v>
       </c>
       <c r="W34" t="n">
-        <v>347.8186302940566</v>
+        <v>347.818630294056</v>
       </c>
       <c r="X34" t="n">
-        <v>262.9410895736054</v>
+        <v>262.9410895736049</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.5298984132966</v>
+        <v>185.5298984132962</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>981.3122544834368</v>
+        <v>981.3122544834366</v>
       </c>
       <c r="C35" t="n">
-        <v>833.5113677216007</v>
+        <v>833.5113677216004</v>
       </c>
       <c r="D35" t="n">
-        <v>696.1956960348596</v>
+        <v>696.1956960348593</v>
       </c>
       <c r="E35" t="n">
-        <v>532.0989102060082</v>
+        <v>532.098910206008</v>
       </c>
       <c r="F35" t="n">
-        <v>343.5820963718504</v>
+        <v>343.5820963718502</v>
       </c>
       <c r="G35" t="n">
         <v>147.9593981639706</v>
       </c>
       <c r="H35" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="I35" t="n">
-        <v>34.73312973923653</v>
+        <v>66.20591361315435</v>
       </c>
       <c r="J35" t="n">
-        <v>78.2840208994858</v>
+        <v>109.7568047734036</v>
       </c>
       <c r="K35" t="n">
-        <v>265.8321100763994</v>
+        <v>297.3048939503172</v>
       </c>
       <c r="L35" t="n">
-        <v>550.4711769599858</v>
+        <v>581.9439608339035</v>
       </c>
       <c r="M35" t="n">
-        <v>882.3992768026596</v>
+        <v>913.8720606765773</v>
       </c>
       <c r="N35" t="n">
-        <v>1204.181145328663</v>
+        <v>1235.65392920258</v>
       </c>
       <c r="O35" t="n">
-        <v>1461.902287755461</v>
+        <v>1493.375071629379</v>
       </c>
       <c r="P35" t="n">
-        <v>1644.922527059368</v>
+        <v>1676.395310933286</v>
       </c>
       <c r="Q35" t="n">
-        <v>1705.183703087908</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="R35" t="n">
-        <v>1710.139107406924</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="S35" t="n">
-        <v>1736.656486961827</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="T35" t="n">
-        <v>1736.656486961827</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="U35" t="n">
         <v>1705.572184254397</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>355.0745514584755</v>
+        <v>512.6840804556207</v>
       </c>
       <c r="C36" t="n">
-        <v>182.3214363802927</v>
+        <v>339.9309653774379</v>
       </c>
       <c r="D36" t="n">
-        <v>34.73312973923653</v>
+        <v>192.3426587363818</v>
       </c>
       <c r="E36" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="F36" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="G36" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="H36" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="I36" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="J36" t="n">
-        <v>34.73312973923653</v>
+        <v>68.45378734268942</v>
       </c>
       <c r="K36" t="n">
-        <v>218.9727177631408</v>
+        <v>252.6933753665937</v>
       </c>
       <c r="L36" t="n">
-        <v>527.5551874018324</v>
+        <v>561.2758450052853</v>
       </c>
       <c r="M36" t="n">
-        <v>604.1223875264618</v>
+        <v>974.177226253569</v>
       </c>
       <c r="N36" t="n">
-        <v>1033.944868049514</v>
+        <v>1402.476344353975</v>
       </c>
       <c r="O36" t="n">
-        <v>1368.125010657365</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="P36" t="n">
-        <v>1619.907495863276</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="Q36" t="n">
-        <v>1736.656486961827</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="R36" t="n">
-        <v>1736.656486961827</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="S36" t="n">
-        <v>1648.045908384811</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="T36" t="n">
-        <v>1648.045908384811</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="U36" t="n">
-        <v>1421.138172091874</v>
+        <v>1578.747701089019</v>
       </c>
       <c r="V36" t="n">
-        <v>1186.886928617475</v>
+        <v>1344.49645761462</v>
       </c>
       <c r="W36" t="n">
-        <v>934.3724369508079</v>
+        <v>1091.981965947953</v>
       </c>
       <c r="X36" t="n">
-        <v>727.8455383563854</v>
+        <v>885.4550673535307</v>
       </c>
       <c r="Y36" t="n">
-        <v>522.1171025800359</v>
+        <v>679.7266315771811</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="C37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="D37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="E37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="F37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="G37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="H37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="I37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="J37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="K37" t="n">
-        <v>47.24885602294798</v>
+        <v>47.24885602294795</v>
       </c>
       <c r="L37" t="n">
         <v>119.0682917887915</v>
       </c>
       <c r="M37" t="n">
-        <v>205.3847165982968</v>
+        <v>205.3847165982967</v>
       </c>
       <c r="N37" t="n">
-        <v>294.7899916473682</v>
+        <v>294.7899916473681</v>
       </c>
       <c r="O37" t="n">
-        <v>362.0336372628526</v>
+        <v>362.0336372628525</v>
       </c>
       <c r="P37" t="n">
-        <v>396.3497113913517</v>
+        <v>396.3497113913516</v>
       </c>
       <c r="Q37" t="n">
-        <v>396.3497113913517</v>
+        <v>396.3497113913516</v>
       </c>
       <c r="R37" t="n">
-        <v>396.3497113913517</v>
+        <v>396.3497113913516</v>
       </c>
       <c r="S37" t="n">
-        <v>211.7248333446846</v>
+        <v>396.3497113913516</v>
       </c>
       <c r="T37" t="n">
-        <v>204.9955696539839</v>
+        <v>389.620447700651</v>
       </c>
       <c r="U37" t="n">
-        <v>138.958013105388</v>
+        <v>323.5828911520551</v>
       </c>
       <c r="V37" t="n">
-        <v>106.3578784768885</v>
+        <v>290.9827565235557</v>
       </c>
       <c r="W37" t="n">
-        <v>40.26660665598866</v>
+        <v>224.8914847026558</v>
       </c>
       <c r="X37" t="n">
-        <v>34.73312973923653</v>
+        <v>219.3580077859037</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>981.3122544834362</v>
+        <v>981.3122544834355</v>
       </c>
       <c r="C38" t="n">
-        <v>833.5113677215999</v>
+        <v>833.5113677215993</v>
       </c>
       <c r="D38" t="n">
-        <v>696.1956960348588</v>
+        <v>696.1956960348582</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0989102060074</v>
+        <v>532.098910206007</v>
       </c>
       <c r="F38" t="n">
-        <v>343.5820963718496</v>
+        <v>343.5820963718493</v>
       </c>
       <c r="G38" t="n">
-        <v>147.9593981639706</v>
+        <v>147.9593981639705</v>
       </c>
       <c r="H38" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="I38" t="n">
-        <v>39.68853405825227</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="J38" t="n">
-        <v>83.23942521850154</v>
+        <v>78.28402089948575</v>
       </c>
       <c r="K38" t="n">
-        <v>270.7875143954152</v>
+        <v>265.8321100763994</v>
       </c>
       <c r="L38" t="n">
-        <v>555.4265812790015</v>
+        <v>550.4711769599857</v>
       </c>
       <c r="M38" t="n">
-        <v>887.3546811216754</v>
+        <v>882.3992768026594</v>
       </c>
       <c r="N38" t="n">
-        <v>1209.136549647678</v>
+        <v>1204.181145328662</v>
       </c>
       <c r="O38" t="n">
-        <v>1466.857692074477</v>
+        <v>1461.902287755461</v>
       </c>
       <c r="P38" t="n">
-        <v>1649.877931378384</v>
+        <v>1644.922527059368</v>
       </c>
       <c r="Q38" t="n">
-        <v>1710.139107406924</v>
+        <v>1705.183703087908</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.139107406924</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="S38" t="n">
-        <v>1736.656486961827</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="T38" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961825</v>
       </c>
       <c r="U38" t="n">
         <v>1705.572184254396</v>
       </c>
       <c r="V38" t="n">
-        <v>1596.61157441824</v>
+        <v>1596.611574418239</v>
       </c>
       <c r="W38" t="n">
         <v>1465.431878240634</v>
       </c>
       <c r="X38" t="n">
-        <v>1313.715331426044</v>
+        <v>1313.715331426043</v>
       </c>
       <c r="Y38" t="n">
-        <v>1146.013458732598</v>
+        <v>1146.013458732597</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.73312973923653</v>
+        <v>621.9996185120328</v>
       </c>
       <c r="C39" t="n">
-        <v>34.73312973923653</v>
+        <v>621.9996185120328</v>
       </c>
       <c r="D39" t="n">
-        <v>34.73312973923653</v>
+        <v>474.4113118709766</v>
       </c>
       <c r="E39" t="n">
-        <v>34.73312973923653</v>
+        <v>316.8017828738314</v>
       </c>
       <c r="F39" t="n">
-        <v>34.73312973923653</v>
+        <v>171.8459928904482</v>
       </c>
       <c r="G39" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="H39" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="I39" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="J39" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="K39" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="L39" t="n">
-        <v>343.3155993779282</v>
+        <v>191.2210062781778</v>
       </c>
       <c r="M39" t="n">
-        <v>756.216980626212</v>
+        <v>604.1223875264615</v>
       </c>
       <c r="N39" t="n">
-        <v>1186.039461149264</v>
+        <v>1033.944868049513</v>
       </c>
       <c r="O39" t="n">
-        <v>1520.219603757115</v>
+        <v>1368.125010657364</v>
       </c>
       <c r="P39" t="n">
-        <v>1736.656486961827</v>
+        <v>1619.907495863276</v>
       </c>
       <c r="Q39" t="n">
-        <v>1736.656486961827</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="R39" t="n">
-        <v>1658.657702698949</v>
+        <v>1692.079846362889</v>
       </c>
       <c r="S39" t="n">
-        <v>1493.270504209403</v>
+        <v>1692.079846362889</v>
       </c>
       <c r="T39" t="n">
-        <v>1327.704486665572</v>
+        <v>1692.079846362889</v>
       </c>
       <c r="U39" t="n">
-        <v>1100.796750372635</v>
+        <v>1688.063239145431</v>
       </c>
       <c r="V39" t="n">
-        <v>866.5455068982357</v>
+        <v>1453.811995671032</v>
       </c>
       <c r="W39" t="n">
-        <v>614.031015231569</v>
+        <v>1201.297504004365</v>
       </c>
       <c r="X39" t="n">
-        <v>407.5041166371465</v>
+        <v>994.7706054099428</v>
       </c>
       <c r="Y39" t="n">
-        <v>201.775680860797</v>
+        <v>789.0421696335933</v>
       </c>
     </row>
     <row r="40">
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>219.3580077859038</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="C40" t="n">
-        <v>219.3580077859038</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="D40" t="n">
-        <v>219.3580077859038</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="E40" t="n">
-        <v>219.3580077859038</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="F40" t="n">
-        <v>219.3580077859038</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="G40" t="n">
-        <v>219.3580077859038</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="H40" t="n">
-        <v>182.8765558572052</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="I40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="J40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="K40" t="n">
-        <v>47.24885602294798</v>
+        <v>47.24885602294795</v>
       </c>
       <c r="L40" t="n">
         <v>119.0682917887915</v>
       </c>
       <c r="M40" t="n">
-        <v>205.3847165982968</v>
+        <v>205.3847165982967</v>
       </c>
       <c r="N40" t="n">
-        <v>294.7899916473682</v>
+        <v>294.7899916473681</v>
       </c>
       <c r="O40" t="n">
-        <v>362.0336372628526</v>
+        <v>362.0336372628525</v>
       </c>
       <c r="P40" t="n">
-        <v>396.3497113913517</v>
+        <v>396.3497113913516</v>
       </c>
       <c r="Q40" t="n">
-        <v>396.3497113913517</v>
+        <v>396.3497113913516</v>
       </c>
       <c r="R40" t="n">
-        <v>396.3497113913517</v>
+        <v>396.3497113913516</v>
       </c>
       <c r="S40" t="n">
-        <v>396.3497113913517</v>
+        <v>396.3497113913516</v>
       </c>
       <c r="T40" t="n">
         <v>389.6204477006511</v>
@@ -7366,16 +7366,16 @@
         <v>323.5828911520553</v>
       </c>
       <c r="V40" t="n">
-        <v>290.9827565235558</v>
+        <v>290.9827565235559</v>
       </c>
       <c r="W40" t="n">
-        <v>224.8914847026559</v>
+        <v>224.8914847026561</v>
       </c>
       <c r="X40" t="n">
-        <v>219.3580077859038</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.3580077859038</v>
+        <v>34.73312973923652</v>
       </c>
     </row>
     <row r="41">
@@ -7388,37 +7388,37 @@
         <v>1150.825059785584</v>
       </c>
       <c r="C41" t="n">
-        <v>975.9683832523953</v>
+        <v>975.9683832523948</v>
       </c>
       <c r="D41" t="n">
-        <v>811.5969217943016</v>
+        <v>811.5969217943011</v>
       </c>
       <c r="E41" t="n">
-        <v>620.4443461940978</v>
+        <v>620.4443461940973</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8717425885875</v>
+        <v>404.871742588587</v>
       </c>
       <c r="G41" t="n">
         <v>182.1932546093554</v>
       </c>
       <c r="H41" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I41" t="n">
-        <v>50.75609222718956</v>
+        <v>50.75609222718954</v>
       </c>
       <c r="J41" t="n">
-        <v>94.30698338743883</v>
+        <v>286.2451994394136</v>
       </c>
       <c r="K41" t="n">
-        <v>281.8550725643525</v>
+        <v>473.7932886163272</v>
       </c>
       <c r="L41" t="n">
-        <v>758.4323554999137</v>
+        <v>758.4323554999135</v>
       </c>
       <c r="M41" t="n">
-        <v>1090.360455342588</v>
+        <v>1090.360455342587</v>
       </c>
       <c r="N41" t="n">
         <v>1412.14232386859</v>
@@ -7430,7 +7430,7 @@
         <v>1852.883705599296</v>
       </c>
       <c r="Q41" t="n">
-        <v>2011.338234306756</v>
+        <v>2011.338234306755</v>
       </c>
       <c r="R41" t="n">
         <v>2095.559820663441</v>
@@ -7439,19 +7439,19 @@
         <v>2095.559820663441</v>
       </c>
       <c r="T41" t="n">
-        <v>2068.504030892089</v>
+        <v>2068.504030892088</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.363938413307</v>
+        <v>2010.363938413306</v>
       </c>
       <c r="V41" t="n">
         <v>1874.347538805798</v>
       </c>
       <c r="W41" t="n">
-        <v>1716.11205285684</v>
+        <v>1716.112052856839</v>
       </c>
       <c r="X41" t="n">
-        <v>1537.339716270897</v>
+        <v>1537.339716270896</v>
       </c>
       <c r="Y41" t="n">
         <v>1342.582053806098</v>
@@ -7476,49 +7476,49 @@
         <v>186.866986396652</v>
       </c>
       <c r="F42" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="G42" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="H42" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I42" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J42" t="n">
-        <v>75.63185401672175</v>
+        <v>47.8963786532963</v>
       </c>
       <c r="K42" t="n">
-        <v>259.871442040626</v>
+        <v>232.1359666772005</v>
       </c>
       <c r="L42" t="n">
-        <v>568.4539116793177</v>
+        <v>540.7184363158922</v>
       </c>
       <c r="M42" t="n">
-        <v>981.3552929276015</v>
+        <v>953.6198175641759</v>
       </c>
       <c r="N42" t="n">
-        <v>1420.583677114554</v>
+        <v>1392.848201751128</v>
       </c>
       <c r="O42" t="n">
-        <v>1754.763819722405</v>
+        <v>1727.028344358979</v>
       </c>
       <c r="P42" t="n">
-        <v>2006.546304928316</v>
+        <v>1978.810829564891</v>
       </c>
       <c r="Q42" t="n">
         <v>2095.559820663441</v>
       </c>
       <c r="R42" t="n">
-        <v>2095.559820663441</v>
+        <v>2017.561036400563</v>
       </c>
       <c r="S42" t="n">
-        <v>2095.559820663441</v>
+        <v>1852.173837911017</v>
       </c>
       <c r="T42" t="n">
-        <v>1957.789294039371</v>
+        <v>1761.953954735244</v>
       </c>
       <c r="U42" t="n">
         <v>1730.881557746435</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="C43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="D43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="E43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="F43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.3022625618953</v>
       </c>
       <c r="G43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.3022625618953</v>
       </c>
       <c r="H43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.3022625618953</v>
       </c>
       <c r="I43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.3022625618953</v>
       </c>
       <c r="J43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.3022625618953</v>
       </c>
       <c r="K43" t="n">
-        <v>54.42692269698027</v>
+        <v>54.81798884560673</v>
       </c>
       <c r="L43" t="n">
-        <v>126.2463584628238</v>
+        <v>126.6374246114503</v>
       </c>
       <c r="M43" t="n">
-        <v>212.5627832723291</v>
+        <v>212.9538494209555</v>
       </c>
       <c r="N43" t="n">
-        <v>301.9680583214005</v>
+        <v>302.3591244700269</v>
       </c>
       <c r="O43" t="n">
-        <v>369.2117039368849</v>
+        <v>369.6027700855112</v>
       </c>
       <c r="P43" t="n">
-        <v>403.527778065384</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.527778065384</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="R43" t="n">
         <v>403.9188442140103</v>
@@ -7612,7 +7612,7 @@
         <v>67.03411354123098</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>41.91119641326883</v>
       </c>
       <c r="I44" t="n">
-        <v>50.75609222718956</v>
+        <v>50.75609222718955</v>
       </c>
       <c r="J44" t="n">
-        <v>276.7219224230437</v>
+        <v>94.30698338743878</v>
       </c>
       <c r="K44" t="n">
-        <v>464.2700115999573</v>
+        <v>281.8550725643524</v>
       </c>
       <c r="L44" t="n">
-        <v>748.9090784835437</v>
+        <v>566.4941394479387</v>
       </c>
       <c r="M44" t="n">
-        <v>1080.837178326218</v>
+        <v>898.4222392906124</v>
       </c>
       <c r="N44" t="n">
-        <v>1402.61904685222</v>
+        <v>1220.204107816615</v>
       </c>
       <c r="O44" t="n">
-        <v>1660.340189279019</v>
+        <v>1477.925250243414</v>
       </c>
       <c r="P44" t="n">
-        <v>2035.298644634901</v>
+        <v>1759.138842226241</v>
       </c>
       <c r="Q44" t="n">
-        <v>2095.559820663441</v>
+        <v>2011.338234306756</v>
       </c>
       <c r="R44" t="n">
         <v>2095.559820663441</v>
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>799.1834117588687</v>
+        <v>721.1846274959912</v>
       </c>
       <c r="C45" t="n">
-        <v>626.4302966806858</v>
+        <v>548.4315124178083</v>
       </c>
       <c r="D45" t="n">
-        <v>478.8419900396297</v>
+        <v>400.8432057767522</v>
       </c>
       <c r="E45" t="n">
-        <v>321.2324610424844</v>
+        <v>243.2336767796069</v>
       </c>
       <c r="F45" t="n">
-        <v>176.2766710591012</v>
+        <v>98.27788679622375</v>
       </c>
       <c r="G45" t="n">
-        <v>41.91119641326883</v>
+        <v>98.27788679622375</v>
       </c>
       <c r="H45" t="n">
-        <v>41.91119641326883</v>
+        <v>98.27788679622375</v>
       </c>
       <c r="I45" t="n">
         <v>41.91119641326883</v>
       </c>
       <c r="J45" t="n">
-        <v>47.89637865329655</v>
+        <v>75.63185401672175</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1359666772008</v>
+        <v>259.871442040626</v>
       </c>
       <c r="L45" t="n">
-        <v>540.7184363158925</v>
+        <v>568.4539116793176</v>
       </c>
       <c r="M45" t="n">
-        <v>953.6198175641763</v>
+        <v>981.3552929276013</v>
       </c>
       <c r="N45" t="n">
         <v>1392.848201751129</v>
@@ -7749,28 +7749,28 @@
         <v>2095.559820663441</v>
       </c>
       <c r="R45" t="n">
-        <v>2095.559820663441</v>
+        <v>2017.561036400564</v>
       </c>
       <c r="S45" t="n">
-        <v>2095.559820663441</v>
+        <v>2017.561036400564</v>
       </c>
       <c r="T45" t="n">
-        <v>2092.154768685204</v>
+        <v>2014.155984422327</v>
       </c>
       <c r="U45" t="n">
-        <v>1865.247032392267</v>
+        <v>1787.24824812939</v>
       </c>
       <c r="V45" t="n">
-        <v>1630.995788917868</v>
+        <v>1552.99700465499</v>
       </c>
       <c r="W45" t="n">
-        <v>1378.481297251201</v>
+        <v>1300.482512988324</v>
       </c>
       <c r="X45" t="n">
-        <v>1171.954398656779</v>
+        <v>1093.955614393901</v>
       </c>
       <c r="Y45" t="n">
-        <v>966.2259628804292</v>
+        <v>888.2271786175517</v>
       </c>
     </row>
     <row r="46">
@@ -7789,34 +7789,34 @@
         <v>41.91119641326883</v>
       </c>
       <c r="E46" t="n">
-        <v>41.91119641326883</v>
+        <v>42.3022625618953</v>
       </c>
       <c r="F46" t="n">
-        <v>41.91119641326883</v>
+        <v>42.3022625618953</v>
       </c>
       <c r="G46" t="n">
-        <v>41.91119641326883</v>
+        <v>42.3022625618953</v>
       </c>
       <c r="H46" t="n">
-        <v>41.91119641326883</v>
+        <v>42.3022625618953</v>
       </c>
       <c r="I46" t="n">
-        <v>42.30226256189513</v>
+        <v>42.3022625618953</v>
       </c>
       <c r="J46" t="n">
-        <v>42.30226256189513</v>
+        <v>42.3022625618953</v>
       </c>
       <c r="K46" t="n">
-        <v>54.81798884560658</v>
+        <v>54.81798884560673</v>
       </c>
       <c r="L46" t="n">
-        <v>126.6374246114501</v>
+        <v>126.6374246114503</v>
       </c>
       <c r="M46" t="n">
-        <v>212.9538494209554</v>
+        <v>212.9538494209555</v>
       </c>
       <c r="N46" t="n">
-        <v>302.3591244700268</v>
+        <v>302.3591244700269</v>
       </c>
       <c r="O46" t="n">
         <v>369.6027700855112</v>
@@ -8778,7 +8778,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>83.43169935272388</v>
+        <v>83.43169935272417</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -9003,10 +9003,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07340644750708</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954215</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9015,7 +9015,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>201.3599731896432</v>
+        <v>303.5935636227815</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9024,7 +9024,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.5521054083636</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789563</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9240,10 +9240,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.07340644750707</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954215</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,13 +9252,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>235.4212434961613</v>
+        <v>480.9863851290693</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>237.6754614096484</v>
       </c>
       <c r="Q18" t="n">
         <v>100.5521054083636</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789563</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L20" t="n">
-        <v>434.3676631324685</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M20" t="n">
         <v>467.4940748325458</v>
@@ -9480,7 +9480,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>215.0448603206259</v>
+        <v>88.94325252954215</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9489,16 +9489,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>480.9863851290694</v>
+        <v>480.9863851290693</v>
       </c>
       <c r="O21" t="n">
-        <v>72.06111244390917</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>237.6754614096484</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5521054083636</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9714,10 +9714,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>105.8340074468333</v>
+        <v>97.07340644750708</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954215</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9726,13 +9726,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>480.9863851290694</v>
+        <v>480.9863851290693</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>76.87553675330055</v>
+        <v>271.7367317161666</v>
       </c>
       <c r="Q24" t="n">
         <v>100.5521054083636</v>
@@ -10662,7 +10662,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>97.07340644750707</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10671,19 +10671,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>144.6017702155006</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>489.0151565254771</v>
+        <v>487.4764066036129</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>76.87553675330059</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5521054083636</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,28 +10899,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>97.07340644750707</v>
+        <v>97.07340644750708</v>
       </c>
       <c r="K39" t="n">
-        <v>88.94325252954212</v>
+        <v>88.94325252954215</v>
       </c>
       <c r="L39" t="n">
-        <v>385.6739591155975</v>
+        <v>232.0430569946375</v>
       </c>
       <c r="M39" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>489.0151565254771</v>
+        <v>489.015156525477</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>295.4986511014944</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>100.5521054083636</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>103.1190450737975</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>190.4647475650553</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>103.1190450737977</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11385,7 +11385,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>470.5004376370683</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>261.0954837478052</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.2713114730586</v>
       </c>
       <c r="G11" t="n">
         <v>292.306137003043</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.9201957077239</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>71.85443390360342</v>
       </c>
       <c r="T11" t="n">
-        <v>98.6396657772424</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.4131254575977</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.5075649930723</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.8390471236871</v>
+        <v>11.36259689548177</v>
       </c>
       <c r="Y11" t="n">
-        <v>54.07431280077537</v>
+        <v>264.6645197437535</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>4.128284212118142</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4.128284212117705</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.9625436714603</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.5821807471161</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>285.2713114730585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>119.0634712126265</v>
       </c>
       <c r="H14" t="n">
         <v>210.7336715177291</v>
       </c>
       <c r="I14" t="n">
-        <v>62.92019570772381</v>
+        <v>62.92019570772385</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.85443390360334</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>98.63966577724227</v>
+        <v>98.63966577724236</v>
       </c>
       <c r="U14" t="n">
-        <v>129.4131254575976</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>112.0693247969429</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.5075649930722</v>
+        <v>228.5075649930723</v>
       </c>
       <c r="X14" t="n">
-        <v>248.839047123687</v>
+        <v>248.8390471236871</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.128284212116093</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>4.128284212116206</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26317,13 +26317,13 @@
         <v>203039.0944389351</v>
       </c>
       <c r="D2" t="n">
-        <v>203039.0944389351</v>
+        <v>203039.0944389352</v>
       </c>
       <c r="E2" t="n">
         <v>174634.9404675234</v>
       </c>
       <c r="F2" t="n">
-        <v>174634.9404675235</v>
+        <v>174634.9404675234</v>
       </c>
       <c r="G2" t="n">
         <v>203479.8521537342</v>
@@ -26335,13 +26335,13 @@
         <v>203479.8521537342</v>
       </c>
       <c r="J2" t="n">
-        <v>203479.8521537344</v>
+        <v>203479.8521537342</v>
       </c>
       <c r="K2" t="n">
-        <v>203479.8521537344</v>
+        <v>203479.8521537345</v>
       </c>
       <c r="L2" t="n">
-        <v>203479.8521537345</v>
+        <v>203479.8521537342</v>
       </c>
       <c r="M2" t="n">
         <v>203479.8521537342</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>329987.2062029916</v>
+        <v>329987.2062029915</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>80988.93635747244</v>
+        <v>80988.9363574725</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80988.93635747243</v>
+        <v>80988.9363574725</v>
       </c>
       <c r="M3" t="n">
-        <v>97387.39977618626</v>
+        <v>97387.39977618618</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>32864.76537852321</v>
+        <v>32864.76537852315</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,22 +26436,22 @@
         <v>343055.0800003024</v>
       </c>
       <c r="I4" t="n">
-        <v>343055.0800003025</v>
+        <v>343055.0800003024</v>
       </c>
       <c r="J4" t="n">
         <v>340754.2524869654</v>
       </c>
       <c r="K4" t="n">
-        <v>340754.2524869653</v>
+        <v>340754.2524869654</v>
       </c>
       <c r="L4" t="n">
         <v>340754.2524869653</v>
       </c>
       <c r="M4" t="n">
-        <v>342807.3727968181</v>
+        <v>342807.3727968182</v>
       </c>
       <c r="N4" t="n">
-        <v>342807.3727968182</v>
+        <v>342807.3727968183</v>
       </c>
       <c r="O4" t="n">
         <v>340039.2336305073</v>
@@ -26479,13 +26479,13 @@
         <v>39020.12398743366</v>
       </c>
       <c r="F5" t="n">
-        <v>39020.12398743368</v>
+        <v>39020.12398743366</v>
       </c>
       <c r="G5" t="n">
-        <v>47530.94760072911</v>
+        <v>47530.9476007291</v>
       </c>
       <c r="H5" t="n">
-        <v>47530.94760072912</v>
+        <v>47530.9476007291</v>
       </c>
       <c r="I5" t="n">
         <v>47530.94760072911</v>
@@ -26497,16 +26497,16 @@
         <v>58677.5251302165</v>
       </c>
       <c r="L5" t="n">
-        <v>58677.52513021649</v>
+        <v>58677.5251302165</v>
       </c>
       <c r="M5" t="n">
-        <v>47800.81135056225</v>
+        <v>47800.81135056223</v>
       </c>
       <c r="N5" t="n">
         <v>47800.81135056225</v>
       </c>
       <c r="O5" t="n">
-        <v>51004.33436444183</v>
+        <v>51004.33436444182</v>
       </c>
       <c r="P5" t="n">
         <v>51004.33436444183</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-247294.1663602704</v>
+        <v>-247298.5739374184</v>
       </c>
       <c r="C6" t="n">
-        <v>-247294.1663602705</v>
+        <v>-247298.5739374186</v>
       </c>
       <c r="D6" t="n">
-        <v>-247294.1663602705</v>
+        <v>-247298.5739374184</v>
       </c>
       <c r="E6" t="n">
-        <v>-471833.0308131872</v>
+        <v>-472121.4799300493</v>
       </c>
       <c r="F6" t="n">
-        <v>-141845.8246101957</v>
+        <v>-142134.2737270579</v>
       </c>
       <c r="G6" t="n">
         <v>-268095.1118047698</v>
@@ -26543,25 +26543,25 @@
         <v>-187106.1754472973</v>
       </c>
       <c r="J6" t="n">
-        <v>-305977.2562698399</v>
+        <v>-305977.2562698401</v>
       </c>
       <c r="K6" t="n">
         <v>-195951.9254634474</v>
       </c>
       <c r="L6" t="n">
-        <v>-276940.8618209197</v>
+        <v>-276940.8618209201</v>
       </c>
       <c r="M6" t="n">
-        <v>-284515.7317698325</v>
+        <v>-284515.7317698324</v>
       </c>
       <c r="N6" t="n">
-        <v>-187128.3319936463</v>
+        <v>-187128.3319936464</v>
       </c>
       <c r="O6" t="n">
         <v>-220428.4812197383</v>
       </c>
       <c r="P6" t="n">
-        <v>-187563.715841215</v>
+        <v>-187563.7158412151</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>142.1115946190626</v>
       </c>
       <c r="L2" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="N2" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="O2" t="n">
         <v>193.8769859110857</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>130.8615028347918</v>
+      </c>
+      <c r="F3" t="n">
         <v>130.8615028347919</v>
       </c>
-      <c r="F3" t="n">
-        <v>130.861502834792</v>
-      </c>
       <c r="G3" t="n">
-        <v>130.861502834792</v>
+        <v>130.8615028347919</v>
       </c>
       <c r="H3" t="n">
-        <v>130.861502834792</v>
+        <v>130.8615028347919</v>
       </c>
       <c r="I3" t="n">
-        <v>130.861502834792</v>
+        <v>130.8615028347919</v>
       </c>
       <c r="J3" t="n">
-        <v>130.861502834792</v>
+        <v>130.8615028347919</v>
       </c>
       <c r="K3" t="n">
-        <v>130.861502834792</v>
+        <v>130.8615028347919</v>
       </c>
       <c r="L3" t="n">
-        <v>130.861502834792</v>
+        <v>130.8615028347919</v>
       </c>
       <c r="M3" t="n">
-        <v>130.861502834792</v>
+        <v>130.8615028347919</v>
       </c>
       <c r="N3" t="n">
-        <v>130.861502834792</v>
+        <v>130.8615028347919</v>
       </c>
       <c r="O3" t="n">
-        <v>130.861502834792</v>
+        <v>130.8615028347919</v>
       </c>
       <c r="P3" t="n">
-        <v>130.861502834792</v>
+        <v>130.8615028347919</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.1353503440489</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="F4" t="n">
-        <v>426.1353503440489</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="G4" t="n">
-        <v>426.1353503440489</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="H4" t="n">
-        <v>426.135350344049</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="I4" t="n">
-        <v>426.1353503440489</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="J4" t="n">
         <v>721.6704723748036</v>
@@ -26820,13 +26820,13 @@
         <v>721.6704723748036</v>
       </c>
       <c r="M4" t="n">
-        <v>434.1641217404567</v>
+        <v>434.1641217404565</v>
       </c>
       <c r="N4" t="n">
-        <v>434.1641217404567</v>
+        <v>434.1641217404565</v>
       </c>
       <c r="O4" t="n">
-        <v>523.8899551658603</v>
+        <v>523.8899551658602</v>
       </c>
       <c r="P4" t="n">
         <v>523.8899551658603</v>
@@ -26917,7 +26917,7 @@
         <v>122.0225520074823</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>101.2361704468406</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.2361704468405</v>
+        <v>101.2361704468406</v>
       </c>
       <c r="M2" t="n">
-        <v>78.5506231656621</v>
+        <v>78.55062316566207</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>14.09019229858299</v>
+        <v>14.09019229858291</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.8615028347919</v>
+        <v>130.8615028347918</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.1353503440489</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.628999709702</v>
+        <v>138.6289997097018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.72583342540366</v>
+        <v>89.72583342540372</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>122.0225520074823</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>101.2361704468406</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>426.1353503440489</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.8046764598881</v>
+        <v>108.8046764598882</v>
       </c>
       <c r="S11" t="n">
         <v>122.0225520074823</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>122.0225520074823</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>122.0225520074823</v>
@@ -28178,7 +28178,7 @@
         <v>122.0225520074823</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="G12" t="n">
         <v>122.0225520074823</v>
@@ -28187,7 +28187,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I12" t="n">
-        <v>76.81238500081962</v>
+        <v>76.81238500081963</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>7.560985383653616</v>
+        <v>84.77978180390282</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28232,10 +28232,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.0225520074823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28412,19 +28412,19 @@
         <v>122.0225520074823</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>122.0225520074823</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
-        <v>122.0225520074823</v>
+        <v>7.560985383654213</v>
       </c>
       <c r="H15" t="n">
         <v>107.7440529821119</v>
       </c>
       <c r="I15" t="n">
-        <v>76.81238500081962</v>
+        <v>76.81238500081963</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,22 +28457,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>122.0225520074823</v>
       </c>
-      <c r="U15" t="n">
-        <v>7.560985383653474</v>
-      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="Y15" t="n">
-        <v>122.0225520074823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28643,25 +28643,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.40792705091048</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2479873695406</v>
+        <v>64.16174278385677</v>
       </c>
       <c r="U18" t="n">
         <v>223.2587224543229</v>
@@ -28719,19 +28719,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>118.5500244902098</v>
       </c>
       <c r="F19" t="n">
-        <v>130.4815602862965</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
         <v>167.6536091708978</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.00061294779459</v>
+        <v>60.0006129477946</v>
       </c>
       <c r="R19" t="n">
         <v>162.7806395874728</v>
@@ -28883,10 +28883,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>143.5062320835493</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,16 +28928,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>213.4910286739484</v>
       </c>
       <c r="V21" t="n">
-        <v>160.2722944054897</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -28965,7 +28965,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>131.2971630496912</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
         <v>146.1590214098045</v>
@@ -28974,13 +28974,13 @@
         <v>167.6536091708978</v>
       </c>
       <c r="H22" t="n">
-        <v>159.5359974224836</v>
+        <v>95.93053370769854</v>
       </c>
       <c r="I22" t="n">
         <v>146.661991856789</v>
       </c>
       <c r="J22" t="n">
-        <v>72.1550759516121</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.00061294779459</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>162.7806395874728</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7417345196995</v>
+        <v>9.416335065959359</v>
       </c>
       <c r="H24" t="n">
         <v>107.7440529821119</v>
       </c>
       <c r="I24" t="n">
-        <v>76.81238500081962</v>
+        <v>76.81238500081963</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>163.7333265046506</v>
@@ -29174,7 +29174,7 @@
         <v>223.2587224543229</v>
       </c>
       <c r="V24" t="n">
-        <v>19.71452658033405</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56.47761482810404</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
@@ -29211,7 +29211,7 @@
         <v>167.6536091708978</v>
       </c>
       <c r="H25" t="n">
-        <v>159.5359974224836</v>
+        <v>35.92992075990399</v>
       </c>
       <c r="I25" t="n">
         <v>146.661991856789</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.00061294779459</v>
+        <v>60.0006129477946</v>
       </c>
       <c r="R25" t="n">
         <v>162.7806395874728</v>
@@ -29317,7 +29317,7 @@
         <v>142.1115946190627</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.1115946190627</v>
+        <v>142.1115946190628</v>
       </c>
       <c r="R26" t="n">
         <v>142.1115946190627</v>
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7417345196995</v>
+        <v>48.64891718814555</v>
       </c>
       <c r="H27" t="n">
         <v>107.7440529821119</v>
       </c>
       <c r="I27" t="n">
-        <v>76.81238500081962</v>
+        <v>76.81238500081963</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29405,7 +29405,7 @@
         <v>142.1115946190627</v>
       </c>
       <c r="T27" t="n">
-        <v>55.01877728750864</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29454,25 +29454,25 @@
         <v>142.1115946190627</v>
       </c>
       <c r="J28" t="n">
-        <v>83.99523789666854</v>
+        <v>83.99523789666863</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="L28" t="n">
         <v>142.1115946190627</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>142.1115946190627</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
       <c r="P28" t="n">
-        <v>142.1115946190627</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>142.1115946190627</v>
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7417345196995</v>
+        <v>48.64891718814555</v>
       </c>
       <c r="H30" t="n">
         <v>107.7440529821119</v>
       </c>
       <c r="I30" t="n">
-        <v>76.81238500081962</v>
+        <v>76.81238500081963</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29642,7 +29642,7 @@
         <v>142.1115946190626</v>
       </c>
       <c r="T30" t="n">
-        <v>55.01877728750864</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29691,28 +29691,28 @@
         <v>142.1115946190626</v>
       </c>
       <c r="J31" t="n">
-        <v>72.1550759516121</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="K31" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>83.99523789667001</v>
       </c>
       <c r="M31" t="n">
         <v>142.1115946190626</v>
       </c>
       <c r="N31" t="n">
-        <v>93.95114361632616</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>142.1115946190626</v>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
       <c r="Q31" t="n">
-        <v>60.00061294779459</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="R31" t="n">
         <v>142.1115946190626</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="C32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="D32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="E32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="F32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="G32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="H32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="I32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="J32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="K32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="L32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="M32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="N32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="O32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="P32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Q32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190628</v>
       </c>
       <c r="R32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="S32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="T32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="U32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="V32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="W32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="X32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
     </row>
     <row r="33">
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>131.8311622883283</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -29876,7 +29876,7 @@
         <v>77.21879642024862</v>
       </c>
       <c r="S33" t="n">
-        <v>142.1115946190625</v>
+        <v>131.8311622883286</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="C34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="D34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="E34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="F34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="G34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="H34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="I34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="J34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="N34" t="n">
-        <v>83.99523789667103</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.1115946190625</v>
+        <v>83.99523789667013</v>
       </c>
       <c r="R34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="T34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="U34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="V34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="W34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="X34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="C35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="D35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="E35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="F35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="G35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="H35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="I35" t="n">
-        <v>184.9427477152062</v>
+        <v>216.7334384969413</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>113.8101353679849</v>
+        <v>108.8046764598881</v>
       </c>
       <c r="S35" t="n">
-        <v>220.6622177847246</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="T35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="U35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="V35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="W35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="X35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="Y35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
     </row>
     <row r="36">
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
@@ -30083,7 +30083,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I36" t="n">
-        <v>76.81238500081962</v>
+        <v>76.81238500081963</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,13 +30113,13 @@
         <v>77.21879642024862</v>
       </c>
       <c r="S36" t="n">
-        <v>76.00885371340497</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T36" t="n">
         <v>197.2479873695406</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>68.30896091592879</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.00061294779459</v>
+        <v>60.0006129477946</v>
       </c>
       <c r="R37" t="n">
         <v>162.7806395874728</v>
       </c>
       <c r="S37" t="n">
-        <v>35.46629407334834</v>
+        <v>218.2449233395488</v>
       </c>
       <c r="T37" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="U37" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="V37" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="W37" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="X37" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>35.97004460156771</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="C38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="D38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="E38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="F38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="G38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="H38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="I38" t="n">
-        <v>189.9482066233029</v>
+        <v>184.9427477152062</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.8046764598881</v>
+        <v>140.5953672416234</v>
       </c>
       <c r="S38" t="n">
-        <v>220.6622177847247</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="T38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="U38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="V38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="W38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="X38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="Y38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
     </row>
     <row r="39">
@@ -30305,22 +30305,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>107.7440529821119</v>
       </c>
       <c r="I39" t="n">
-        <v>76.81238500081962</v>
+        <v>76.81238500081963</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>33.08792222730072</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T39" t="n">
-        <v>33.33763000114763</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30396,10 +30396,10 @@
         <v>167.6536091708978</v>
       </c>
       <c r="H40" t="n">
-        <v>123.419360013072</v>
+        <v>159.5359974224836</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>146.661991856789</v>
       </c>
       <c r="J40" t="n">
         <v>72.1550759516121</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.00061294779459</v>
+        <v>60.0006129477946</v>
       </c>
       <c r="R40" t="n">
         <v>162.7806395874728</v>
@@ -30432,19 +30432,19 @@
         <v>218.2449233395488</v>
       </c>
       <c r="T40" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="U40" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="V40" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="W40" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847248</v>
       </c>
       <c r="X40" t="n">
-        <v>220.6622177847247</v>
+        <v>37.88358851852385</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30481,13 +30481,13 @@
         <v>193.8769859110857</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>193.8769859110857</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>99.18520472618147</v>
+        <v>99.18520472618128</v>
       </c>
       <c r="R41" t="n">
         <v>193.8769859110857</v>
@@ -30557,7 +30557,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I42" t="n">
-        <v>76.81238500081962</v>
+        <v>76.81238500081963</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>60.8551660117115</v>
+        <v>107.9303030255256</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>146.5540377215484</v>
       </c>
       <c r="G43" t="n">
         <v>167.6536091708978</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.00061294779459</v>
+        <v>60.0006129477946</v>
       </c>
       <c r="R43" t="n">
-        <v>163.1756558992165</v>
+        <v>162.7806395874728</v>
       </c>
       <c r="S43" t="n">
         <v>193.8769859110857</v>
@@ -30718,7 +30718,7 @@
         <v>193.8769859110857</v>
       </c>
       <c r="J44" t="n">
-        <v>184.2575141773787</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30736,13 +30736,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
+        <v>99.18520472618201</v>
+      </c>
+      <c r="Q44" t="n">
         <v>193.8769859110857</v>
       </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
       <c r="R44" t="n">
-        <v>108.8046764598881</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="S44" t="n">
         <v>193.8769859110857</v>
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.719914620325454</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H45" t="n">
         <v>107.7440529821119</v>
       </c>
       <c r="I45" t="n">
-        <v>76.81238500081962</v>
+        <v>21.00936152169425</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>163.7333265046506</v>
@@ -30861,7 +30861,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>147.3696404849431</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -30873,7 +30873,7 @@
         <v>159.5359974224836</v>
       </c>
       <c r="I46" t="n">
-        <v>147.0570081685327</v>
+        <v>146.661991856789</v>
       </c>
       <c r="J46" t="n">
         <v>72.1550759516121</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.00061294779459</v>
+        <v>60.0006129477946</v>
       </c>
       <c r="R46" t="n">
         <v>162.7806395874728</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5260763933056958</v>
+        <v>0.5260763933056954</v>
       </c>
       <c r="H11" t="n">
-        <v>5.387679862941959</v>
+        <v>5.387679862941956</v>
       </c>
       <c r="I11" t="n">
-        <v>20.28156015291786</v>
+        <v>20.28156015291784</v>
       </c>
       <c r="J11" t="n">
-        <v>44.65007628632934</v>
+        <v>44.65007628632931</v>
       </c>
       <c r="K11" t="n">
-        <v>66.91889001495946</v>
+        <v>66.91889001495942</v>
       </c>
       <c r="L11" t="n">
-        <v>83.01880043658866</v>
+        <v>83.01880043658861</v>
       </c>
       <c r="M11" t="n">
-        <v>92.37441149603883</v>
+        <v>92.37441149603877</v>
       </c>
       <c r="N11" t="n">
-        <v>93.86912604851865</v>
+        <v>93.86912604851858</v>
       </c>
       <c r="O11" t="n">
-        <v>88.63795391258513</v>
+        <v>88.63795391258506</v>
       </c>
       <c r="P11" t="n">
-        <v>75.65044295285075</v>
+        <v>75.6504429528507</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.8103321175905</v>
+        <v>56.81033211759046</v>
       </c>
       <c r="R11" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098893</v>
       </c>
       <c r="S11" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T11" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695683</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445563</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.28147568534276</v>
+        <v>0.2814756853427599</v>
       </c>
       <c r="H12" t="n">
-        <v>2.718462540020867</v>
+        <v>2.718462540020865</v>
       </c>
       <c r="I12" t="n">
-        <v>9.691158464652046</v>
+        <v>9.691158464652039</v>
       </c>
       <c r="J12" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249294</v>
       </c>
       <c r="K12" t="n">
-        <v>45.45215047045788</v>
+        <v>45.45215047045784</v>
       </c>
       <c r="L12" t="n">
-        <v>61.11602545128656</v>
+        <v>61.11602545128652</v>
       </c>
       <c r="M12" t="n">
-        <v>71.3195190449616</v>
+        <v>71.31951904496155</v>
       </c>
       <c r="N12" t="n">
-        <v>73.2071344962295</v>
+        <v>73.20713449622946</v>
       </c>
       <c r="O12" t="n">
-        <v>66.97022588942413</v>
+        <v>66.97022588942409</v>
       </c>
       <c r="P12" t="n">
-        <v>53.74951047567144</v>
+        <v>53.7495104756714</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.93012432550741</v>
+        <v>35.93012432550738</v>
       </c>
       <c r="R12" t="n">
-        <v>17.4761833408426</v>
+        <v>17.47618334084259</v>
       </c>
       <c r="S12" t="n">
-        <v>5.228287400993807</v>
+        <v>5.228287400993803</v>
       </c>
       <c r="T12" t="n">
-        <v>1.134544538728054</v>
+        <v>1.134544538728053</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01851813719360264</v>
+        <v>0.01851813719360263</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2359797592102805</v>
+        <v>0.2359797592102804</v>
       </c>
       <c r="H13" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I13" t="n">
-        <v>7.09655494061462</v>
+        <v>7.096554940614615</v>
       </c>
       <c r="J13" t="n">
-        <v>16.68376897616683</v>
+        <v>16.68376897616682</v>
       </c>
       <c r="K13" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915802</v>
       </c>
       <c r="L13" t="n">
-        <v>35.08375438295389</v>
+        <v>35.08375438295387</v>
       </c>
       <c r="M13" t="n">
-        <v>36.9908998914806</v>
+        <v>36.99089989148058</v>
       </c>
       <c r="N13" t="n">
-        <v>36.11133897078777</v>
+        <v>36.11133897078775</v>
       </c>
       <c r="O13" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910401</v>
       </c>
       <c r="P13" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121426</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.76008692805358</v>
+        <v>19.76008692805357</v>
       </c>
       <c r="R13" t="n">
-        <v>10.61050808230952</v>
+        <v>10.61050808230951</v>
       </c>
       <c r="S13" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873703</v>
       </c>
       <c r="T13" t="n">
-        <v>1.00827715298938</v>
+        <v>1.008277152989379</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01287162322965168</v>
+        <v>0.01287162322965167</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5260763933056959</v>
+        <v>0.5260763933056956</v>
       </c>
       <c r="H14" t="n">
-        <v>5.38767986294196</v>
+        <v>5.387679862941956</v>
       </c>
       <c r="I14" t="n">
-        <v>20.28156015291786</v>
+        <v>20.28156015291785</v>
       </c>
       <c r="J14" t="n">
-        <v>44.65007628632935</v>
+        <v>44.65007628632932</v>
       </c>
       <c r="K14" t="n">
-        <v>66.91889001495947</v>
+        <v>66.91889001495943</v>
       </c>
       <c r="L14" t="n">
-        <v>83.01880043658868</v>
+        <v>83.01880043658863</v>
       </c>
       <c r="M14" t="n">
-        <v>92.37441149603885</v>
+        <v>92.37441149603879</v>
       </c>
       <c r="N14" t="n">
-        <v>93.86912604851867</v>
+        <v>93.86912604851861</v>
       </c>
       <c r="O14" t="n">
-        <v>88.63795391258515</v>
+        <v>88.63795391258509</v>
       </c>
       <c r="P14" t="n">
-        <v>75.65044295285077</v>
+        <v>75.65044295285071</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.81033211759051</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R14" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098893</v>
       </c>
       <c r="S14" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T14" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445564</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2814756853427601</v>
+        <v>0.2814756853427599</v>
       </c>
       <c r="H15" t="n">
-        <v>2.718462540020868</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I15" t="n">
-        <v>9.691158464652048</v>
+        <v>9.691158464652041</v>
       </c>
       <c r="J15" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45215047045789</v>
+        <v>45.45215047045786</v>
       </c>
       <c r="L15" t="n">
-        <v>61.11602545128657</v>
+        <v>61.11602545128653</v>
       </c>
       <c r="M15" t="n">
-        <v>71.31951904496161</v>
+        <v>71.31951904496157</v>
       </c>
       <c r="N15" t="n">
-        <v>73.20713449622951</v>
+        <v>73.20713449622947</v>
       </c>
       <c r="O15" t="n">
-        <v>66.97022588942414</v>
+        <v>66.9702258894241</v>
       </c>
       <c r="P15" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567141</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.93012432550741</v>
+        <v>35.93012432550739</v>
       </c>
       <c r="R15" t="n">
-        <v>17.4761833408426</v>
+        <v>17.47618334084259</v>
       </c>
       <c r="S15" t="n">
-        <v>5.228287400993808</v>
+        <v>5.228287400993804</v>
       </c>
       <c r="T15" t="n">
         <v>1.134544538728054</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01851813719360264</v>
+        <v>0.01851813719360263</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2359797592102806</v>
+        <v>0.2359797592102804</v>
       </c>
       <c r="H16" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I16" t="n">
-        <v>7.096554940614621</v>
+        <v>7.096554940614617</v>
       </c>
       <c r="J16" t="n">
-        <v>16.68376897616684</v>
+        <v>16.68376897616682</v>
       </c>
       <c r="K16" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L16" t="n">
-        <v>35.0837543829539</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M16" t="n">
-        <v>36.99089989148061</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N16" t="n">
-        <v>36.11133897078778</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O16" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910401</v>
       </c>
       <c r="P16" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.76008692805359</v>
+        <v>19.76008692805357</v>
       </c>
       <c r="R16" t="n">
         <v>10.61050808230952</v>
       </c>
       <c r="S16" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873704</v>
       </c>
       <c r="T16" t="n">
         <v>1.00827715298938</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01287162322965168</v>
+        <v>0.01287162322965167</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5260763933056959</v>
+        <v>0.5260763933056956</v>
       </c>
       <c r="H17" t="n">
-        <v>5.38767986294196</v>
+        <v>5.387679862941956</v>
       </c>
       <c r="I17" t="n">
-        <v>20.28156015291786</v>
+        <v>20.28156015291785</v>
       </c>
       <c r="J17" t="n">
-        <v>44.65007628632935</v>
+        <v>44.65007628632932</v>
       </c>
       <c r="K17" t="n">
-        <v>66.91889001495947</v>
+        <v>66.91889001495943</v>
       </c>
       <c r="L17" t="n">
-        <v>83.01880043658868</v>
+        <v>83.01880043658863</v>
       </c>
       <c r="M17" t="n">
-        <v>92.37441149603885</v>
+        <v>92.37441149603879</v>
       </c>
       <c r="N17" t="n">
-        <v>93.86912604851867</v>
+        <v>93.86912604851861</v>
       </c>
       <c r="O17" t="n">
-        <v>88.63795391258515</v>
+        <v>88.63795391258509</v>
       </c>
       <c r="P17" t="n">
-        <v>75.65044295285077</v>
+        <v>75.65044295285071</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.81033211759051</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R17" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098893</v>
       </c>
       <c r="S17" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T17" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445564</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2814756853427601</v>
+        <v>0.2814756853427599</v>
       </c>
       <c r="H18" t="n">
-        <v>2.718462540020868</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I18" t="n">
-        <v>9.691158464652048</v>
+        <v>9.691158464652041</v>
       </c>
       <c r="J18" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K18" t="n">
-        <v>45.45215047045789</v>
+        <v>45.45215047045786</v>
       </c>
       <c r="L18" t="n">
-        <v>61.11602545128657</v>
+        <v>61.11602545128653</v>
       </c>
       <c r="M18" t="n">
-        <v>71.31951904496161</v>
+        <v>71.31951904496157</v>
       </c>
       <c r="N18" t="n">
-        <v>73.20713449622951</v>
+        <v>73.20713449622947</v>
       </c>
       <c r="O18" t="n">
-        <v>66.97022588942414</v>
+        <v>66.9702258894241</v>
       </c>
       <c r="P18" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567141</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.93012432550741</v>
+        <v>35.93012432550739</v>
       </c>
       <c r="R18" t="n">
-        <v>17.4761833408426</v>
+        <v>17.47618334084259</v>
       </c>
       <c r="S18" t="n">
-        <v>5.228287400993808</v>
+        <v>5.228287400993804</v>
       </c>
       <c r="T18" t="n">
         <v>1.134544538728054</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01851813719360264</v>
+        <v>0.01851813719360263</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2359797592102806</v>
+        <v>0.2359797592102804</v>
       </c>
       <c r="H19" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I19" t="n">
-        <v>7.096554940614621</v>
+        <v>7.096554940614617</v>
       </c>
       <c r="J19" t="n">
-        <v>16.68376897616684</v>
+        <v>16.68376897616682</v>
       </c>
       <c r="K19" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L19" t="n">
-        <v>35.0837543829539</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M19" t="n">
-        <v>36.99089989148061</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N19" t="n">
-        <v>36.11133897078778</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O19" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910401</v>
       </c>
       <c r="P19" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.76008692805359</v>
+        <v>19.76008692805357</v>
       </c>
       <c r="R19" t="n">
         <v>10.61050808230952</v>
       </c>
       <c r="S19" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873704</v>
       </c>
       <c r="T19" t="n">
         <v>1.00827715298938</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01287162322965168</v>
+        <v>0.01287162322965167</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5260763933056959</v>
+        <v>0.5260763933056956</v>
       </c>
       <c r="H20" t="n">
-        <v>5.38767986294196</v>
+        <v>5.387679862941956</v>
       </c>
       <c r="I20" t="n">
-        <v>20.28156015291786</v>
+        <v>20.28156015291785</v>
       </c>
       <c r="J20" t="n">
-        <v>44.65007628632935</v>
+        <v>44.65007628632932</v>
       </c>
       <c r="K20" t="n">
-        <v>66.91889001495947</v>
+        <v>66.91889001495943</v>
       </c>
       <c r="L20" t="n">
-        <v>83.01880043658868</v>
+        <v>83.01880043658863</v>
       </c>
       <c r="M20" t="n">
-        <v>92.37441149603885</v>
+        <v>92.37441149603879</v>
       </c>
       <c r="N20" t="n">
-        <v>93.86912604851867</v>
+        <v>93.86912604851861</v>
       </c>
       <c r="O20" t="n">
-        <v>88.63795391258515</v>
+        <v>88.63795391258509</v>
       </c>
       <c r="P20" t="n">
-        <v>75.65044295285077</v>
+        <v>75.65044295285071</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.81033211759051</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R20" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098893</v>
       </c>
       <c r="S20" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T20" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445564</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2814756853427601</v>
+        <v>0.2814756853427599</v>
       </c>
       <c r="H21" t="n">
-        <v>2.718462540020868</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I21" t="n">
-        <v>9.691158464652048</v>
+        <v>9.691158464652041</v>
       </c>
       <c r="J21" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K21" t="n">
-        <v>45.45215047045789</v>
+        <v>45.45215047045786</v>
       </c>
       <c r="L21" t="n">
-        <v>61.11602545128657</v>
+        <v>61.11602545128653</v>
       </c>
       <c r="M21" t="n">
-        <v>71.31951904496161</v>
+        <v>71.31951904496157</v>
       </c>
       <c r="N21" t="n">
-        <v>73.20713449622951</v>
+        <v>73.20713449622947</v>
       </c>
       <c r="O21" t="n">
-        <v>66.97022588942414</v>
+        <v>66.9702258894241</v>
       </c>
       <c r="P21" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567141</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.93012432550741</v>
+        <v>35.93012432550739</v>
       </c>
       <c r="R21" t="n">
-        <v>17.4761833408426</v>
+        <v>17.47618334084259</v>
       </c>
       <c r="S21" t="n">
-        <v>5.228287400993808</v>
+        <v>5.228287400993804</v>
       </c>
       <c r="T21" t="n">
         <v>1.134544538728054</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01851813719360264</v>
+        <v>0.01851813719360263</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2359797592102806</v>
+        <v>0.2359797592102804</v>
       </c>
       <c r="H22" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I22" t="n">
-        <v>7.096554940614621</v>
+        <v>7.096554940614617</v>
       </c>
       <c r="J22" t="n">
-        <v>16.68376897616684</v>
+        <v>16.68376897616682</v>
       </c>
       <c r="K22" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L22" t="n">
-        <v>35.0837543829539</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M22" t="n">
-        <v>36.99089989148061</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N22" t="n">
-        <v>36.11133897078778</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O22" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910401</v>
       </c>
       <c r="P22" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.76008692805359</v>
+        <v>19.76008692805357</v>
       </c>
       <c r="R22" t="n">
         <v>10.61050808230952</v>
       </c>
       <c r="S22" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873704</v>
       </c>
       <c r="T22" t="n">
         <v>1.00827715298938</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01287162322965168</v>
+        <v>0.01287162322965167</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5260763933056959</v>
+        <v>0.5260763933056956</v>
       </c>
       <c r="H23" t="n">
-        <v>5.38767986294196</v>
+        <v>5.387679862941956</v>
       </c>
       <c r="I23" t="n">
-        <v>20.28156015291786</v>
+        <v>20.28156015291785</v>
       </c>
       <c r="J23" t="n">
-        <v>44.65007628632935</v>
+        <v>44.65007628632932</v>
       </c>
       <c r="K23" t="n">
-        <v>66.91889001495947</v>
+        <v>66.91889001495943</v>
       </c>
       <c r="L23" t="n">
-        <v>83.01880043658868</v>
+        <v>83.01880043658863</v>
       </c>
       <c r="M23" t="n">
-        <v>92.37441149603885</v>
+        <v>92.37441149603879</v>
       </c>
       <c r="N23" t="n">
-        <v>93.86912604851867</v>
+        <v>93.86912604851861</v>
       </c>
       <c r="O23" t="n">
-        <v>88.63795391258515</v>
+        <v>88.63795391258509</v>
       </c>
       <c r="P23" t="n">
-        <v>75.65044295285077</v>
+        <v>75.65044295285071</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.81033211759051</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R23" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098893</v>
       </c>
       <c r="S23" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T23" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445564</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2814756853427601</v>
+        <v>0.2814756853427599</v>
       </c>
       <c r="H24" t="n">
-        <v>2.718462540020868</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I24" t="n">
-        <v>9.691158464652048</v>
+        <v>9.691158464652041</v>
       </c>
       <c r="J24" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K24" t="n">
-        <v>45.45215047045789</v>
+        <v>45.45215047045786</v>
       </c>
       <c r="L24" t="n">
-        <v>61.11602545128657</v>
+        <v>61.11602545128653</v>
       </c>
       <c r="M24" t="n">
-        <v>71.31951904496161</v>
+        <v>71.31951904496157</v>
       </c>
       <c r="N24" t="n">
-        <v>73.20713449622951</v>
+        <v>73.20713449622947</v>
       </c>
       <c r="O24" t="n">
-        <v>66.97022588942414</v>
+        <v>66.9702258894241</v>
       </c>
       <c r="P24" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567141</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.93012432550741</v>
+        <v>35.93012432550739</v>
       </c>
       <c r="R24" t="n">
-        <v>17.4761833408426</v>
+        <v>17.47618334084259</v>
       </c>
       <c r="S24" t="n">
-        <v>5.228287400993808</v>
+        <v>5.228287400993804</v>
       </c>
       <c r="T24" t="n">
         <v>1.134544538728054</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01851813719360264</v>
+        <v>0.01851813719360263</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2359797592102806</v>
+        <v>0.2359797592102804</v>
       </c>
       <c r="H25" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I25" t="n">
-        <v>7.096554940614621</v>
+        <v>7.096554940614617</v>
       </c>
       <c r="J25" t="n">
-        <v>16.68376897616684</v>
+        <v>16.68376897616682</v>
       </c>
       <c r="K25" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L25" t="n">
-        <v>35.0837543829539</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M25" t="n">
-        <v>36.99089989148061</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N25" t="n">
-        <v>36.11133897078778</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O25" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910401</v>
       </c>
       <c r="P25" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.76008692805359</v>
+        <v>19.76008692805357</v>
       </c>
       <c r="R25" t="n">
         <v>10.61050808230952</v>
       </c>
       <c r="S25" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873704</v>
       </c>
       <c r="T25" t="n">
         <v>1.00827715298938</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01287162322965168</v>
+        <v>0.01287162322965167</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5260763933056959</v>
+        <v>0.5260763933056956</v>
       </c>
       <c r="H26" t="n">
-        <v>5.38767986294196</v>
+        <v>5.387679862941956</v>
       </c>
       <c r="I26" t="n">
-        <v>20.28156015291786</v>
+        <v>20.28156015291785</v>
       </c>
       <c r="J26" t="n">
-        <v>44.65007628632935</v>
+        <v>44.65007628632932</v>
       </c>
       <c r="K26" t="n">
-        <v>66.91889001495947</v>
+        <v>66.91889001495943</v>
       </c>
       <c r="L26" t="n">
-        <v>83.01880043658868</v>
+        <v>83.01880043658863</v>
       </c>
       <c r="M26" t="n">
-        <v>92.37441149603885</v>
+        <v>92.37441149603879</v>
       </c>
       <c r="N26" t="n">
-        <v>93.86912604851867</v>
+        <v>93.86912604851861</v>
       </c>
       <c r="O26" t="n">
-        <v>88.63795391258515</v>
+        <v>88.63795391258509</v>
       </c>
       <c r="P26" t="n">
-        <v>75.65044295285077</v>
+        <v>75.65044295285071</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.81033211759051</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R26" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098893</v>
       </c>
       <c r="S26" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T26" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445564</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2814756853427601</v>
+        <v>0.2814756853427599</v>
       </c>
       <c r="H27" t="n">
-        <v>2.718462540020868</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I27" t="n">
-        <v>9.691158464652048</v>
+        <v>9.691158464652041</v>
       </c>
       <c r="J27" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K27" t="n">
-        <v>45.45215047045789</v>
+        <v>45.45215047045786</v>
       </c>
       <c r="L27" t="n">
-        <v>61.11602545128657</v>
+        <v>61.11602545128653</v>
       </c>
       <c r="M27" t="n">
-        <v>71.31951904496161</v>
+        <v>71.31951904496157</v>
       </c>
       <c r="N27" t="n">
-        <v>73.20713449622951</v>
+        <v>73.20713449622947</v>
       </c>
       <c r="O27" t="n">
-        <v>66.97022588942414</v>
+        <v>66.9702258894241</v>
       </c>
       <c r="P27" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567141</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.93012432550741</v>
+        <v>35.93012432550739</v>
       </c>
       <c r="R27" t="n">
-        <v>17.4761833408426</v>
+        <v>17.47618334084259</v>
       </c>
       <c r="S27" t="n">
-        <v>5.228287400993808</v>
+        <v>5.228287400993804</v>
       </c>
       <c r="T27" t="n">
         <v>1.134544538728054</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01851813719360264</v>
+        <v>0.01851813719360263</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2359797592102806</v>
+        <v>0.2359797592102804</v>
       </c>
       <c r="H28" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I28" t="n">
-        <v>7.096554940614621</v>
+        <v>7.096554940614617</v>
       </c>
       <c r="J28" t="n">
-        <v>16.68376897616684</v>
+        <v>16.68376897616682</v>
       </c>
       <c r="K28" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L28" t="n">
-        <v>35.0837543829539</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M28" t="n">
-        <v>36.99089989148061</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N28" t="n">
-        <v>36.11133897078778</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O28" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910401</v>
       </c>
       <c r="P28" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.76008692805359</v>
+        <v>19.76008692805357</v>
       </c>
       <c r="R28" t="n">
         <v>10.61050808230952</v>
       </c>
       <c r="S28" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873704</v>
       </c>
       <c r="T28" t="n">
         <v>1.00827715298938</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01287162322965168</v>
+        <v>0.01287162322965167</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5260763933056959</v>
+        <v>0.5260763933056956</v>
       </c>
       <c r="H29" t="n">
-        <v>5.38767986294196</v>
+        <v>5.387679862941956</v>
       </c>
       <c r="I29" t="n">
-        <v>20.28156015291786</v>
+        <v>20.28156015291785</v>
       </c>
       <c r="J29" t="n">
-        <v>44.65007628632935</v>
+        <v>44.65007628632932</v>
       </c>
       <c r="K29" t="n">
-        <v>66.91889001495947</v>
+        <v>66.91889001495943</v>
       </c>
       <c r="L29" t="n">
-        <v>83.01880043658868</v>
+        <v>83.01880043658863</v>
       </c>
       <c r="M29" t="n">
-        <v>92.37441149603885</v>
+        <v>92.37441149603879</v>
       </c>
       <c r="N29" t="n">
-        <v>93.86912604851867</v>
+        <v>93.86912604851861</v>
       </c>
       <c r="O29" t="n">
-        <v>88.63795391258515</v>
+        <v>88.63795391258509</v>
       </c>
       <c r="P29" t="n">
-        <v>75.65044295285077</v>
+        <v>75.65044295285071</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.81033211759051</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R29" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098893</v>
       </c>
       <c r="S29" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T29" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445564</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2814756853427601</v>
+        <v>0.2814756853427599</v>
       </c>
       <c r="H30" t="n">
-        <v>2.718462540020868</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I30" t="n">
-        <v>9.691158464652048</v>
+        <v>9.691158464652041</v>
       </c>
       <c r="J30" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K30" t="n">
-        <v>45.45215047045789</v>
+        <v>45.45215047045786</v>
       </c>
       <c r="L30" t="n">
-        <v>61.11602545128657</v>
+        <v>61.11602545128653</v>
       </c>
       <c r="M30" t="n">
-        <v>71.31951904496161</v>
+        <v>71.31951904496157</v>
       </c>
       <c r="N30" t="n">
-        <v>73.20713449622951</v>
+        <v>73.20713449622947</v>
       </c>
       <c r="O30" t="n">
-        <v>66.97022588942414</v>
+        <v>66.9702258894241</v>
       </c>
       <c r="P30" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567141</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.93012432550741</v>
+        <v>35.93012432550739</v>
       </c>
       <c r="R30" t="n">
-        <v>17.4761833408426</v>
+        <v>17.47618334084259</v>
       </c>
       <c r="S30" t="n">
-        <v>5.228287400993808</v>
+        <v>5.228287400993804</v>
       </c>
       <c r="T30" t="n">
         <v>1.134544538728054</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01851813719360264</v>
+        <v>0.01851813719360263</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2359797592102806</v>
+        <v>0.2359797592102804</v>
       </c>
       <c r="H31" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I31" t="n">
-        <v>7.096554940614621</v>
+        <v>7.096554940614617</v>
       </c>
       <c r="J31" t="n">
-        <v>16.68376897616684</v>
+        <v>16.68376897616682</v>
       </c>
       <c r="K31" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L31" t="n">
-        <v>35.0837543829539</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M31" t="n">
-        <v>36.99089989148061</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N31" t="n">
-        <v>36.11133897078778</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O31" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910401</v>
       </c>
       <c r="P31" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.76008692805359</v>
+        <v>19.76008692805357</v>
       </c>
       <c r="R31" t="n">
         <v>10.61050808230952</v>
       </c>
       <c r="S31" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873704</v>
       </c>
       <c r="T31" t="n">
         <v>1.00827715298938</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01287162322965168</v>
+        <v>0.01287162322965167</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5260763933056959</v>
+        <v>0.5260763933056956</v>
       </c>
       <c r="H32" t="n">
-        <v>5.38767986294196</v>
+        <v>5.387679862941956</v>
       </c>
       <c r="I32" t="n">
-        <v>20.28156015291786</v>
+        <v>20.28156015291785</v>
       </c>
       <c r="J32" t="n">
-        <v>44.65007628632935</v>
+        <v>44.65007628632932</v>
       </c>
       <c r="K32" t="n">
-        <v>66.91889001495947</v>
+        <v>66.91889001495943</v>
       </c>
       <c r="L32" t="n">
-        <v>83.01880043658868</v>
+        <v>83.01880043658863</v>
       </c>
       <c r="M32" t="n">
-        <v>92.37441149603885</v>
+        <v>92.37441149603879</v>
       </c>
       <c r="N32" t="n">
-        <v>93.86912604851867</v>
+        <v>93.86912604851861</v>
       </c>
       <c r="O32" t="n">
-        <v>88.63795391258515</v>
+        <v>88.63795391258509</v>
       </c>
       <c r="P32" t="n">
-        <v>75.65044295285077</v>
+        <v>75.65044295285071</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.81033211759051</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R32" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098893</v>
       </c>
       <c r="S32" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T32" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445564</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2814756853427601</v>
+        <v>0.2814756853427599</v>
       </c>
       <c r="H33" t="n">
-        <v>2.718462540020868</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I33" t="n">
-        <v>9.691158464652048</v>
+        <v>9.691158464652041</v>
       </c>
       <c r="J33" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K33" t="n">
-        <v>45.45215047045789</v>
+        <v>45.45215047045786</v>
       </c>
       <c r="L33" t="n">
-        <v>61.11602545128657</v>
+        <v>61.11602545128653</v>
       </c>
       <c r="M33" t="n">
-        <v>71.31951904496161</v>
+        <v>71.31951904496157</v>
       </c>
       <c r="N33" t="n">
-        <v>73.20713449622951</v>
+        <v>73.20713449622947</v>
       </c>
       <c r="O33" t="n">
-        <v>66.97022588942414</v>
+        <v>66.9702258894241</v>
       </c>
       <c r="P33" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567141</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.93012432550741</v>
+        <v>35.93012432550739</v>
       </c>
       <c r="R33" t="n">
-        <v>17.4761833408426</v>
+        <v>17.47618334084259</v>
       </c>
       <c r="S33" t="n">
-        <v>5.228287400993808</v>
+        <v>5.228287400993804</v>
       </c>
       <c r="T33" t="n">
         <v>1.134544538728054</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01851813719360264</v>
+        <v>0.01851813719360263</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2359797592102806</v>
+        <v>0.2359797592102804</v>
       </c>
       <c r="H34" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I34" t="n">
-        <v>7.096554940614621</v>
+        <v>7.096554940614617</v>
       </c>
       <c r="J34" t="n">
-        <v>16.68376897616684</v>
+        <v>16.68376897616682</v>
       </c>
       <c r="K34" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L34" t="n">
-        <v>35.0837543829539</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M34" t="n">
-        <v>36.99089989148061</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N34" t="n">
-        <v>36.11133897078778</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O34" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910401</v>
       </c>
       <c r="P34" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.76008692805359</v>
+        <v>19.76008692805357</v>
       </c>
       <c r="R34" t="n">
         <v>10.61050808230952</v>
       </c>
       <c r="S34" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873704</v>
       </c>
       <c r="T34" t="n">
         <v>1.00827715298938</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01287162322965168</v>
+        <v>0.01287162322965167</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5260763933056959</v>
+        <v>0.5260763933056956</v>
       </c>
       <c r="H35" t="n">
-        <v>5.38767986294196</v>
+        <v>5.387679862941956</v>
       </c>
       <c r="I35" t="n">
-        <v>20.28156015291786</v>
+        <v>20.28156015291785</v>
       </c>
       <c r="J35" t="n">
-        <v>44.65007628632935</v>
+        <v>44.65007628632932</v>
       </c>
       <c r="K35" t="n">
-        <v>66.91889001495947</v>
+        <v>66.91889001495943</v>
       </c>
       <c r="L35" t="n">
-        <v>83.01880043658868</v>
+        <v>83.01880043658863</v>
       </c>
       <c r="M35" t="n">
-        <v>92.37441149603885</v>
+        <v>92.37441149603879</v>
       </c>
       <c r="N35" t="n">
-        <v>93.86912604851867</v>
+        <v>93.86912604851861</v>
       </c>
       <c r="O35" t="n">
-        <v>88.63795391258515</v>
+        <v>88.63795391258509</v>
       </c>
       <c r="P35" t="n">
-        <v>75.65044295285077</v>
+        <v>75.65044295285071</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.81033211759051</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R35" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098893</v>
       </c>
       <c r="S35" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T35" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445564</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2814756853427601</v>
+        <v>0.2814756853427599</v>
       </c>
       <c r="H36" t="n">
-        <v>2.718462540020868</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I36" t="n">
-        <v>9.691158464652048</v>
+        <v>9.691158464652041</v>
       </c>
       <c r="J36" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K36" t="n">
-        <v>45.45215047045789</v>
+        <v>45.45215047045786</v>
       </c>
       <c r="L36" t="n">
-        <v>61.11602545128657</v>
+        <v>61.11602545128653</v>
       </c>
       <c r="M36" t="n">
-        <v>71.31951904496161</v>
+        <v>71.31951904496157</v>
       </c>
       <c r="N36" t="n">
-        <v>73.20713449622951</v>
+        <v>73.20713449622947</v>
       </c>
       <c r="O36" t="n">
-        <v>66.97022588942414</v>
+        <v>66.9702258894241</v>
       </c>
       <c r="P36" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567141</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.93012432550741</v>
+        <v>35.93012432550739</v>
       </c>
       <c r="R36" t="n">
-        <v>17.4761833408426</v>
+        <v>17.47618334084259</v>
       </c>
       <c r="S36" t="n">
-        <v>5.228287400993808</v>
+        <v>5.228287400993804</v>
       </c>
       <c r="T36" t="n">
         <v>1.134544538728054</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01851813719360264</v>
+        <v>0.01851813719360263</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2359797592102806</v>
+        <v>0.2359797592102804</v>
       </c>
       <c r="H37" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I37" t="n">
-        <v>7.096554940614621</v>
+        <v>7.096554940614617</v>
       </c>
       <c r="J37" t="n">
-        <v>16.68376897616684</v>
+        <v>16.68376897616682</v>
       </c>
       <c r="K37" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L37" t="n">
-        <v>35.0837543829539</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M37" t="n">
-        <v>36.99089989148061</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N37" t="n">
-        <v>36.11133897078778</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O37" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910401</v>
       </c>
       <c r="P37" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.76008692805359</v>
+        <v>19.76008692805357</v>
       </c>
       <c r="R37" t="n">
         <v>10.61050808230952</v>
       </c>
       <c r="S37" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873704</v>
       </c>
       <c r="T37" t="n">
         <v>1.00827715298938</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01287162322965168</v>
+        <v>0.01287162322965167</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5260763933056959</v>
+        <v>0.5260763933056956</v>
       </c>
       <c r="H38" t="n">
-        <v>5.38767986294196</v>
+        <v>5.387679862941956</v>
       </c>
       <c r="I38" t="n">
-        <v>20.28156015291786</v>
+        <v>20.28156015291785</v>
       </c>
       <c r="J38" t="n">
-        <v>44.65007628632935</v>
+        <v>44.65007628632932</v>
       </c>
       <c r="K38" t="n">
-        <v>66.91889001495947</v>
+        <v>66.91889001495943</v>
       </c>
       <c r="L38" t="n">
-        <v>83.01880043658868</v>
+        <v>83.01880043658863</v>
       </c>
       <c r="M38" t="n">
-        <v>92.37441149603885</v>
+        <v>92.37441149603879</v>
       </c>
       <c r="N38" t="n">
-        <v>93.86912604851867</v>
+        <v>93.86912604851861</v>
       </c>
       <c r="O38" t="n">
-        <v>88.63795391258515</v>
+        <v>88.63795391258509</v>
       </c>
       <c r="P38" t="n">
-        <v>75.65044295285077</v>
+        <v>75.65044295285071</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.81033211759051</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R38" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098893</v>
       </c>
       <c r="S38" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T38" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445564</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2814756853427601</v>
+        <v>0.2814756853427599</v>
       </c>
       <c r="H39" t="n">
-        <v>2.718462540020868</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I39" t="n">
-        <v>9.691158464652048</v>
+        <v>9.691158464652041</v>
       </c>
       <c r="J39" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K39" t="n">
-        <v>45.45215047045789</v>
+        <v>45.45215047045786</v>
       </c>
       <c r="L39" t="n">
-        <v>61.11602545128657</v>
+        <v>61.11602545128653</v>
       </c>
       <c r="M39" t="n">
-        <v>71.31951904496161</v>
+        <v>71.31951904496157</v>
       </c>
       <c r="N39" t="n">
-        <v>73.20713449622951</v>
+        <v>73.20713449622947</v>
       </c>
       <c r="O39" t="n">
-        <v>66.97022588942414</v>
+        <v>66.9702258894241</v>
       </c>
       <c r="P39" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567141</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.93012432550741</v>
+        <v>35.93012432550739</v>
       </c>
       <c r="R39" t="n">
-        <v>17.4761833408426</v>
+        <v>17.47618334084259</v>
       </c>
       <c r="S39" t="n">
-        <v>5.228287400993808</v>
+        <v>5.228287400993804</v>
       </c>
       <c r="T39" t="n">
         <v>1.134544538728054</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01851813719360264</v>
+        <v>0.01851813719360263</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2359797592102806</v>
+        <v>0.2359797592102804</v>
       </c>
       <c r="H40" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I40" t="n">
-        <v>7.096554940614621</v>
+        <v>7.096554940614617</v>
       </c>
       <c r="J40" t="n">
-        <v>16.68376897616684</v>
+        <v>16.68376897616682</v>
       </c>
       <c r="K40" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L40" t="n">
-        <v>35.0837543829539</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M40" t="n">
-        <v>36.99089989148061</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N40" t="n">
-        <v>36.11133897078778</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O40" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910401</v>
       </c>
       <c r="P40" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.76008692805359</v>
+        <v>19.76008692805357</v>
       </c>
       <c r="R40" t="n">
         <v>10.61050808230952</v>
       </c>
       <c r="S40" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873704</v>
       </c>
       <c r="T40" t="n">
         <v>1.00827715298938</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01287162322965168</v>
+        <v>0.01287162322965167</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5260763933056959</v>
+        <v>0.5260763933056956</v>
       </c>
       <c r="H41" t="n">
-        <v>5.38767986294196</v>
+        <v>5.387679862941956</v>
       </c>
       <c r="I41" t="n">
-        <v>20.28156015291786</v>
+        <v>20.28156015291785</v>
       </c>
       <c r="J41" t="n">
-        <v>44.65007628632935</v>
+        <v>44.65007628632932</v>
       </c>
       <c r="K41" t="n">
-        <v>66.91889001495947</v>
+        <v>66.91889001495943</v>
       </c>
       <c r="L41" t="n">
-        <v>83.01880043658868</v>
+        <v>83.01880043658863</v>
       </c>
       <c r="M41" t="n">
-        <v>92.37441149603885</v>
+        <v>92.37441149603879</v>
       </c>
       <c r="N41" t="n">
-        <v>93.86912604851867</v>
+        <v>93.86912604851861</v>
       </c>
       <c r="O41" t="n">
-        <v>88.63795391258515</v>
+        <v>88.63795391258509</v>
       </c>
       <c r="P41" t="n">
-        <v>75.65044295285077</v>
+        <v>75.65044295285071</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.81033211759051</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R41" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098893</v>
       </c>
       <c r="S41" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T41" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445564</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2814756853427601</v>
+        <v>0.2814756853427599</v>
       </c>
       <c r="H42" t="n">
-        <v>2.718462540020868</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I42" t="n">
-        <v>9.691158464652048</v>
+        <v>9.691158464652041</v>
       </c>
       <c r="J42" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K42" t="n">
-        <v>45.45215047045789</v>
+        <v>45.45215047045786</v>
       </c>
       <c r="L42" t="n">
-        <v>61.11602545128657</v>
+        <v>61.11602545128653</v>
       </c>
       <c r="M42" t="n">
-        <v>71.31951904496161</v>
+        <v>71.31951904496157</v>
       </c>
       <c r="N42" t="n">
-        <v>73.20713449622951</v>
+        <v>73.20713449622947</v>
       </c>
       <c r="O42" t="n">
-        <v>66.97022588942414</v>
+        <v>66.9702258894241</v>
       </c>
       <c r="P42" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567141</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.93012432550741</v>
+        <v>35.93012432550739</v>
       </c>
       <c r="R42" t="n">
-        <v>17.4761833408426</v>
+        <v>17.47618334084259</v>
       </c>
       <c r="S42" t="n">
-        <v>5.228287400993808</v>
+        <v>5.228287400993804</v>
       </c>
       <c r="T42" t="n">
         <v>1.134544538728054</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01851813719360264</v>
+        <v>0.01851813719360263</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2359797592102806</v>
+        <v>0.2359797592102804</v>
       </c>
       <c r="H43" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I43" t="n">
-        <v>7.096554940614621</v>
+        <v>7.096554940614617</v>
       </c>
       <c r="J43" t="n">
-        <v>16.68376897616684</v>
+        <v>16.68376897616682</v>
       </c>
       <c r="K43" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L43" t="n">
-        <v>35.0837543829539</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M43" t="n">
-        <v>36.99089989148061</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N43" t="n">
-        <v>36.11133897078778</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O43" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910401</v>
       </c>
       <c r="P43" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.76008692805359</v>
+        <v>19.76008692805357</v>
       </c>
       <c r="R43" t="n">
         <v>10.61050808230952</v>
       </c>
       <c r="S43" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873704</v>
       </c>
       <c r="T43" t="n">
         <v>1.00827715298938</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01287162322965168</v>
+        <v>0.01287162322965167</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5260763933056959</v>
+        <v>0.5260763933056956</v>
       </c>
       <c r="H44" t="n">
-        <v>5.38767986294196</v>
+        <v>5.387679862941956</v>
       </c>
       <c r="I44" t="n">
-        <v>20.28156015291786</v>
+        <v>20.28156015291785</v>
       </c>
       <c r="J44" t="n">
-        <v>44.65007628632935</v>
+        <v>44.65007628632932</v>
       </c>
       <c r="K44" t="n">
-        <v>66.91889001495947</v>
+        <v>66.91889001495943</v>
       </c>
       <c r="L44" t="n">
-        <v>83.01880043658868</v>
+        <v>83.01880043658863</v>
       </c>
       <c r="M44" t="n">
-        <v>92.37441149603885</v>
+        <v>92.37441149603879</v>
       </c>
       <c r="N44" t="n">
-        <v>93.86912604851867</v>
+        <v>93.86912604851861</v>
       </c>
       <c r="O44" t="n">
-        <v>88.63795391258515</v>
+        <v>88.63795391258509</v>
       </c>
       <c r="P44" t="n">
-        <v>75.65044295285077</v>
+        <v>75.65044295285071</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.81033211759051</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R44" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098893</v>
       </c>
       <c r="S44" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T44" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445564</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2814756853427601</v>
+        <v>0.2814756853427599</v>
       </c>
       <c r="H45" t="n">
-        <v>2.718462540020868</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I45" t="n">
-        <v>9.691158464652048</v>
+        <v>9.691158464652041</v>
       </c>
       <c r="J45" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K45" t="n">
-        <v>45.45215047045789</v>
+        <v>45.45215047045786</v>
       </c>
       <c r="L45" t="n">
-        <v>61.11602545128657</v>
+        <v>61.11602545128653</v>
       </c>
       <c r="M45" t="n">
-        <v>71.31951904496161</v>
+        <v>71.31951904496157</v>
       </c>
       <c r="N45" t="n">
-        <v>73.20713449622951</v>
+        <v>73.20713449622947</v>
       </c>
       <c r="O45" t="n">
-        <v>66.97022588942414</v>
+        <v>66.9702258894241</v>
       </c>
       <c r="P45" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567141</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.93012432550741</v>
+        <v>35.93012432550739</v>
       </c>
       <c r="R45" t="n">
-        <v>17.4761833408426</v>
+        <v>17.47618334084259</v>
       </c>
       <c r="S45" t="n">
-        <v>5.228287400993808</v>
+        <v>5.228287400993804</v>
       </c>
       <c r="T45" t="n">
         <v>1.134544538728054</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01851813719360264</v>
+        <v>0.01851813719360263</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2359797592102806</v>
+        <v>0.2359797592102804</v>
       </c>
       <c r="H46" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I46" t="n">
-        <v>7.096554940614621</v>
+        <v>7.096554940614617</v>
       </c>
       <c r="J46" t="n">
-        <v>16.68376897616684</v>
+        <v>16.68376897616682</v>
       </c>
       <c r="K46" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L46" t="n">
-        <v>35.0837543829539</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M46" t="n">
-        <v>36.99089989148061</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N46" t="n">
-        <v>36.11133897078778</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O46" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910401</v>
       </c>
       <c r="P46" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.76008692805359</v>
+        <v>19.76008692805357</v>
       </c>
       <c r="R46" t="n">
         <v>10.61050808230952</v>
       </c>
       <c r="S46" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873704</v>
       </c>
       <c r="T46" t="n">
         <v>1.00827715298938</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01287162322965168</v>
+        <v>0.01287162322965167</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.99079915176693</v>
+        <v>43.99079915176689</v>
       </c>
       <c r="K11" t="n">
         <v>189.4425143201148</v>
@@ -35419,7 +35419,7 @@
         <v>335.2809089319937</v>
       </c>
       <c r="N11" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O11" t="n">
         <v>260.3243862896957</v>
@@ -35428,7 +35428,7 @@
         <v>184.8689285898049</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.86987477630311</v>
+        <v>60.86987477630308</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.06127030651811</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K12" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L12" t="n">
         <v>311.6994642815067</v>
       </c>
       <c r="M12" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N12" t="n">
-        <v>28.58066456770342</v>
+        <v>28.58066456770365</v>
       </c>
       <c r="O12" t="n">
         <v>337.5556996038895</v>
       </c>
       <c r="P12" t="n">
-        <v>254.3257426322341</v>
+        <v>254.325742632234</v>
       </c>
       <c r="Q12" t="n">
         <v>117.9282738369195</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.86747605587016</v>
+        <v>49.86747605587014</v>
       </c>
       <c r="K13" t="n">
         <v>134.6646997688069</v>
@@ -35586,7 +35586,7 @@
         <v>156.6852531473804</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.02193905968767</v>
+        <v>62.02193905968765</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.99079915176694</v>
+        <v>43.99079915176691</v>
       </c>
       <c r="K14" t="n">
         <v>189.4425143201148</v>
@@ -35656,16 +35656,16 @@
         <v>335.2809089319937</v>
       </c>
       <c r="N14" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O14" t="n">
-        <v>260.3243862896958</v>
+        <v>260.3243862896957</v>
       </c>
       <c r="P14" t="n">
         <v>184.8689285898049</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.86987477630313</v>
+        <v>60.86987477630309</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.06127030651811</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>311.6994642815068</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M15" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N15" t="n">
-        <v>146.5089384046228</v>
+        <v>248.742528837761</v>
       </c>
       <c r="O15" t="n">
         <v>337.5556996038895</v>
       </c>
       <c r="P15" t="n">
-        <v>254.3257426322341</v>
+        <v>254.325742632234</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.86747605587024</v>
+        <v>49.86747605587021</v>
       </c>
       <c r="K16" t="n">
-        <v>134.6646997688071</v>
+        <v>134.664699768807</v>
       </c>
       <c r="L16" t="n">
         <v>194.5674366194455</v>
@@ -35817,13 +35817,13 @@
         <v>212.330910642908</v>
       </c>
       <c r="O16" t="n">
-        <v>189.9454263665575</v>
+        <v>189.9454263665574</v>
       </c>
       <c r="P16" t="n">
-        <v>156.6852531473805</v>
+        <v>156.6852531473804</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.02193905968775</v>
+        <v>62.02193905968772</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.99079915176694</v>
+        <v>43.99079915176652</v>
       </c>
       <c r="K17" t="n">
         <v>189.4425143201148</v>
@@ -35893,16 +35893,16 @@
         <v>335.2809089319937</v>
       </c>
       <c r="N17" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O17" t="n">
-        <v>260.3243862896958</v>
+        <v>260.3243862896957</v>
       </c>
       <c r="P17" t="n">
         <v>184.8689285898049</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.86987477630313</v>
+        <v>60.86987477630309</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K18" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>311.6994642815068</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M18" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N18" t="n">
-        <v>180.5702087111408</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="O18" t="n">
         <v>337.5556996038895</v>
       </c>
       <c r="P18" t="n">
-        <v>254.3257426322341</v>
+        <v>160.7999246563478</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L19" t="n">
-        <v>72.54488461196318</v>
+        <v>72.54488461196317</v>
       </c>
       <c r="M19" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838915</v>
       </c>
       <c r="N19" t="n">
-        <v>90.30835863542566</v>
+        <v>90.30835863542565</v>
       </c>
       <c r="O19" t="n">
-        <v>67.9228743590751</v>
+        <v>67.92287435907508</v>
       </c>
       <c r="P19" t="n">
-        <v>34.66270113989813</v>
+        <v>34.6627011398981</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.99079915176694</v>
+        <v>43.99079915176652</v>
       </c>
       <c r="K20" t="n">
         <v>189.4425143201148</v>
       </c>
       <c r="L20" t="n">
-        <v>287.5142089733196</v>
+        <v>287.5142089733195</v>
       </c>
       <c r="M20" t="n">
         <v>335.2809089319937</v>
       </c>
       <c r="N20" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O20" t="n">
-        <v>260.3243862896958</v>
+        <v>260.3243862896957</v>
       </c>
       <c r="P20" t="n">
         <v>184.8689285898049</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.86987477630313</v>
+        <v>60.86987477630309</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.06127030651811</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K21" t="n">
-        <v>126.1016077910838</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>311.6994642815068</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M21" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N21" t="n">
-        <v>426.135350344049</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>337.5556996038895</v>
       </c>
       <c r="P21" t="n">
-        <v>254.3257426322341</v>
+        <v>160.7999246563478</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.9282738369195</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L22" t="n">
-        <v>72.54488461196318</v>
+        <v>72.54488461196317</v>
       </c>
       <c r="M22" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838915</v>
       </c>
       <c r="N22" t="n">
-        <v>90.30835863542566</v>
+        <v>90.30835863542565</v>
       </c>
       <c r="O22" t="n">
-        <v>67.9228743590751</v>
+        <v>67.92287435907508</v>
       </c>
       <c r="P22" t="n">
-        <v>34.66270113989813</v>
+        <v>34.6627011398981</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.99079915176694</v>
+        <v>43.99079915176691</v>
       </c>
       <c r="K23" t="n">
         <v>189.4425143201148</v>
@@ -36367,16 +36367,16 @@
         <v>335.2809089319937</v>
       </c>
       <c r="N23" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O23" t="n">
-        <v>260.3243862896958</v>
+        <v>260.3243862896957</v>
       </c>
       <c r="P23" t="n">
         <v>184.8689285898049</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.86987477630313</v>
+        <v>60.86987477630309</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8.760600999326268</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>311.6994642815068</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M24" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N24" t="n">
-        <v>426.1353503440489</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="O24" t="n">
         <v>337.5556996038895</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>194.8611949628659</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L25" t="n">
-        <v>72.54488461196318</v>
+        <v>72.54488461196317</v>
       </c>
       <c r="M25" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838915</v>
       </c>
       <c r="N25" t="n">
-        <v>90.30835863542566</v>
+        <v>90.30835863542565</v>
       </c>
       <c r="O25" t="n">
-        <v>67.9228743590751</v>
+        <v>67.92287435907508</v>
       </c>
       <c r="P25" t="n">
-        <v>34.66270113989813</v>
+        <v>34.6627011398981</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>331.5541089391774</v>
       </c>
       <c r="L26" t="n">
-        <v>429.6258035923822</v>
+        <v>429.6258035923821</v>
       </c>
       <c r="M26" t="n">
         <v>477.3925035510564</v>
@@ -36607,16 +36607,16 @@
         <v>467.1437850493686</v>
       </c>
       <c r="O26" t="n">
-        <v>402.4359809087584</v>
+        <v>402.4359809087583</v>
       </c>
       <c r="P26" t="n">
-        <v>326.9805232088676</v>
+        <v>326.9805232088675</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.9814693953658</v>
+        <v>202.9814693953659</v>
       </c>
       <c r="R26" t="n">
-        <v>33.30691815917454</v>
+        <v>33.30691815917451</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.06127030651811</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K27" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L27" t="n">
-        <v>311.6994642815068</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M27" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N27" t="n">
-        <v>443.6650345322752</v>
+        <v>443.6650345322751</v>
       </c>
       <c r="O27" t="n">
         <v>337.5556996038895</v>
       </c>
       <c r="P27" t="n">
-        <v>254.3257426322341</v>
+        <v>254.325742632234</v>
       </c>
       <c r="Q27" t="n">
         <v>117.9282738369195</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.84016194505644</v>
+        <v>11.84016194505652</v>
       </c>
       <c r="K28" t="n">
-        <v>12.64214776132469</v>
+        <v>154.7537423803873</v>
       </c>
       <c r="L28" t="n">
-        <v>214.6564792310259</v>
+        <v>214.6564792310258</v>
       </c>
       <c r="M28" t="n">
-        <v>229.2999025074518</v>
+        <v>87.18830788838915</v>
       </c>
       <c r="N28" t="n">
-        <v>90.30835863542566</v>
+        <v>90.30835863542565</v>
       </c>
       <c r="O28" t="n">
-        <v>67.9228743590751</v>
+        <v>210.0344689781377</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7742957589608</v>
+        <v>34.6627011398981</v>
       </c>
       <c r="Q28" t="n">
         <v>82.11098167126806</v>
@@ -36841,7 +36841,7 @@
         <v>477.3925035510563</v>
       </c>
       <c r="N29" t="n">
-        <v>467.1437850493686</v>
+        <v>467.1437850493685</v>
       </c>
       <c r="O29" t="n">
         <v>402.4359809087583</v>
@@ -36853,7 +36853,7 @@
         <v>202.9814693953657</v>
       </c>
       <c r="R29" t="n">
-        <v>33.30691815917444</v>
+        <v>33.30691815917446</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.06127030651811</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K30" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L30" t="n">
-        <v>311.6994642815068</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M30" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N30" t="n">
-        <v>443.6650345322752</v>
+        <v>443.6650345322751</v>
       </c>
       <c r="O30" t="n">
         <v>337.5556996038895</v>
       </c>
       <c r="P30" t="n">
-        <v>254.3257426322341</v>
+        <v>254.325742632234</v>
       </c>
       <c r="Q30" t="n">
         <v>117.9282738369195</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.9565186674505</v>
       </c>
       <c r="K31" t="n">
-        <v>154.7537423803873</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L31" t="n">
-        <v>72.54488461196318</v>
+        <v>156.5401225086332</v>
       </c>
       <c r="M31" t="n">
         <v>229.2999025074517</v>
       </c>
       <c r="N31" t="n">
-        <v>184.2595022517518</v>
+        <v>90.30835863542565</v>
       </c>
       <c r="O31" t="n">
-        <v>210.0344689781377</v>
+        <v>67.92287435907508</v>
       </c>
       <c r="P31" t="n">
-        <v>34.66270113989813</v>
+        <v>176.7742957589607</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>82.11098167126801</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>186.1023937708295</v>
       </c>
       <c r="K32" t="n">
-        <v>331.5541089391773</v>
+        <v>331.5541089391774</v>
       </c>
       <c r="L32" t="n">
         <v>429.6258035923821</v>
@@ -37078,7 +37078,7 @@
         <v>477.3925035510563</v>
       </c>
       <c r="N32" t="n">
-        <v>467.1437850493685</v>
+        <v>467.1437850493686</v>
       </c>
       <c r="O32" t="n">
         <v>402.4359809087583</v>
@@ -37087,10 +37087,10 @@
         <v>326.9805232088675</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.9814693953657</v>
+        <v>202.9814693953659</v>
       </c>
       <c r="R32" t="n">
-        <v>33.30691815917442</v>
+        <v>33.30691815917446</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.06127030651811</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K33" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L33" t="n">
-        <v>311.6994642815068</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M33" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N33" t="n">
-        <v>443.6650345322752</v>
+        <v>443.6650345322751</v>
       </c>
       <c r="O33" t="n">
         <v>337.5556996038895</v>
       </c>
       <c r="P33" t="n">
-        <v>254.3257426322341</v>
+        <v>254.325742632234</v>
       </c>
       <c r="Q33" t="n">
         <v>117.9282738369195</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.95651866745044</v>
+        <v>69.9565186674505</v>
       </c>
       <c r="K34" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L34" t="n">
-        <v>72.54488461196318</v>
+        <v>72.54488461196317</v>
       </c>
       <c r="M34" t="n">
         <v>229.2999025074517</v>
       </c>
       <c r="N34" t="n">
-        <v>174.3035965320967</v>
+        <v>232.4199532544882</v>
       </c>
       <c r="O34" t="n">
-        <v>67.9228743590751</v>
+        <v>67.92287435907508</v>
       </c>
       <c r="P34" t="n">
         <v>176.7742957589607</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.11098167126795</v>
+        <v>23.99462494887553</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.79069078173519</v>
       </c>
       <c r="J35" t="n">
-        <v>43.99079915176694</v>
+        <v>43.99079915176691</v>
       </c>
       <c r="K35" t="n">
         <v>189.4425143201148</v>
@@ -37315,22 +37315,22 @@
         <v>335.2809089319937</v>
       </c>
       <c r="N35" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O35" t="n">
-        <v>260.3243862896958</v>
+        <v>260.3243862896957</v>
       </c>
       <c r="P35" t="n">
         <v>184.8689285898049</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.86987477630313</v>
+        <v>60.86987477630309</v>
       </c>
       <c r="R35" t="n">
-        <v>5.005458908096737</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>26.78523187363897</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K36" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L36" t="n">
-        <v>311.6994642815068</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M36" t="n">
-        <v>77.34060618649433</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N36" t="n">
-        <v>434.1641217404567</v>
+        <v>432.6253718185924</v>
       </c>
       <c r="O36" t="n">
         <v>337.5556996038895</v>
       </c>
       <c r="P36" t="n">
-        <v>254.3257426322341</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.9282738369195</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L37" t="n">
-        <v>72.54488461196318</v>
+        <v>72.54488461196317</v>
       </c>
       <c r="M37" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838915</v>
       </c>
       <c r="N37" t="n">
-        <v>90.30835863542566</v>
+        <v>90.30835863542565</v>
       </c>
       <c r="O37" t="n">
-        <v>67.9228743590751</v>
+        <v>67.92287435907508</v>
       </c>
       <c r="P37" t="n">
-        <v>34.66270113989813</v>
+        <v>34.6627011398981</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>5.005458908096709</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>43.99079915176694</v>
+        <v>43.99079915176691</v>
       </c>
       <c r="K38" t="n">
         <v>189.4425143201148</v>
@@ -37552,22 +37552,22 @@
         <v>335.2809089319937</v>
       </c>
       <c r="N38" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O38" t="n">
-        <v>260.3243862896958</v>
+        <v>260.3243862896957</v>
       </c>
       <c r="P38" t="n">
         <v>184.8689285898049</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.86987477630313</v>
+        <v>60.86987477630309</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>31.79069078173529</v>
       </c>
       <c r="S38" t="n">
-        <v>26.785231873639</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>311.6994642815068</v>
+        <v>158.0685621605467</v>
       </c>
       <c r="M39" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N39" t="n">
-        <v>434.1641217404567</v>
+        <v>434.1641217404565</v>
       </c>
       <c r="O39" t="n">
         <v>337.5556996038895</v>
       </c>
       <c r="P39" t="n">
-        <v>218.6231143481938</v>
+        <v>254.325742632234</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L40" t="n">
-        <v>72.54488461196318</v>
+        <v>72.54488461196317</v>
       </c>
       <c r="M40" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838915</v>
       </c>
       <c r="N40" t="n">
-        <v>90.30835863542566</v>
+        <v>90.30835863542565</v>
       </c>
       <c r="O40" t="n">
-        <v>67.9228743590751</v>
+        <v>67.92287435907508</v>
       </c>
       <c r="P40" t="n">
-        <v>34.66270113989813</v>
+        <v>34.6627011398981</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.93423819587953</v>
+        <v>8.934238195879516</v>
       </c>
       <c r="J41" t="n">
-        <v>43.99079915176694</v>
+        <v>237.8677850628526</v>
       </c>
       <c r="K41" t="n">
         <v>189.4425143201148</v>
       </c>
       <c r="L41" t="n">
-        <v>481.3911948844052</v>
+        <v>287.5142089733195</v>
       </c>
       <c r="M41" t="n">
         <v>335.2809089319937</v>
       </c>
       <c r="N41" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O41" t="n">
-        <v>260.3243862896958</v>
+        <v>260.3243862896957</v>
       </c>
       <c r="P41" t="n">
         <v>184.8689285898049</v>
       </c>
       <c r="Q41" t="n">
-        <v>160.0550795024846</v>
+        <v>160.0550795024844</v>
       </c>
       <c r="R41" t="n">
-        <v>85.07230945119755</v>
+        <v>85.07230945119754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.06127030651811</v>
+        <v>6.045638626290381</v>
       </c>
       <c r="K42" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L42" t="n">
-        <v>311.6994642815068</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M42" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N42" t="n">
-        <v>443.6650345322752</v>
+        <v>443.6650345322751</v>
       </c>
       <c r="O42" t="n">
         <v>337.5556996038895</v>
       </c>
       <c r="P42" t="n">
-        <v>254.3257426322341</v>
+        <v>254.325742632234</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.9126421566918</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.3950163117439249</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37938,28 +37938,28 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L43" t="n">
-        <v>72.54488461196318</v>
+        <v>72.54488461196317</v>
       </c>
       <c r="M43" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838915</v>
       </c>
       <c r="N43" t="n">
-        <v>90.30835863542566</v>
+        <v>90.30835863542565</v>
       </c>
       <c r="O43" t="n">
-        <v>67.9228743590751</v>
+        <v>67.92287435907508</v>
       </c>
       <c r="P43" t="n">
-        <v>34.66270113989813</v>
+        <v>34.6627011398981</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3950163117437311</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.93423819587953</v>
+        <v>8.934238195879516</v>
       </c>
       <c r="J44" t="n">
-        <v>228.2483133291456</v>
+        <v>43.99079915176691</v>
       </c>
       <c r="K44" t="n">
         <v>189.4425143201148</v>
@@ -38026,19 +38026,19 @@
         <v>335.2809089319937</v>
       </c>
       <c r="N44" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O44" t="n">
-        <v>260.3243862896958</v>
+        <v>260.3243862896957</v>
       </c>
       <c r="P44" t="n">
-        <v>378.7459145008906</v>
+        <v>284.0541333159869</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.86987477630313</v>
+        <v>254.7468606873888</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.07230945119754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6.045638626290632</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K45" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L45" t="n">
-        <v>311.6994642815068</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M45" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N45" t="n">
-        <v>443.6650345322752</v>
+        <v>415.6494028520478</v>
       </c>
       <c r="O45" t="n">
         <v>337.5556996038895</v>
       </c>
       <c r="P45" t="n">
-        <v>254.3257426322341</v>
+        <v>254.325742632234</v>
       </c>
       <c r="Q45" t="n">
         <v>117.9282738369195</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.3950163117439178</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38169,28 +38169,28 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3950163117437455</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L46" t="n">
-        <v>72.54488461196318</v>
+        <v>72.54488461196317</v>
       </c>
       <c r="M46" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838915</v>
       </c>
       <c r="N46" t="n">
-        <v>90.30835863542566</v>
+        <v>90.30835863542565</v>
       </c>
       <c r="O46" t="n">
-        <v>67.9228743590751</v>
+        <v>67.92287435907508</v>
       </c>
       <c r="P46" t="n">
-        <v>34.66270113989813</v>
+        <v>34.6627011398981</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
